--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_23.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>390561.7549201652</v>
+        <v>384970.441311341</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9221964.136541221</v>
+        <v>9221964.136541227</v>
       </c>
     </row>
     <row r="9">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.627477127824789</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="C5" t="n">
+      <c r="F5" t="n">
         <v>1.847726076095356</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.627477127824789</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>1.847726076095356</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1.627477127824789</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1025,22 +1025,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.627477127824789</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,23 +1053,23 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.627477127824789</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="C7" t="n">
-        <v>1.627477127824789</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>1.847726076095356</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>22.38076769552774</v>
+        <v>3.994857438866504</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>20.9011336287111</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.515223372049866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>22.38076769552774</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,64 +1223,64 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>19.71298018622083</v>
       </c>
-      <c r="G9" t="n">
+      <c r="X9" t="n">
         <v>22.38076769552774</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="Y9" t="n">
         <v>22.38076769552774</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>22.38076769552774</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>19.71298018622083</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>22.38076769552774</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,43 +1302,43 @@
         <v>22.38076769552774</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>22.38076769552774</v>
-      </c>
-      <c r="G10" t="n">
-        <v>22.38076769552774</v>
-      </c>
-      <c r="H10" t="n">
-        <v>19.71298018622083</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,67 +1369,67 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244.6438568012213</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>30.42648339432983</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>277.7518810186436</v>
       </c>
-      <c r="D11" t="n">
+      <c r="I11" t="n">
+        <v>24.54168449516088</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>213.0641528523089</v>
+      </c>
+      <c r="U11" t="n">
+        <v>254.3634170780652</v>
+      </c>
+      <c r="V11" t="n">
         <v>277.7518810186436</v>
-      </c>
-      <c r="E11" t="n">
-        <v>277.7518810186436</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>61.87069759640761</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>91.19898439450054</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>154.339112415581</v>
+        <v>152.6847536385206</v>
       </c>
       <c r="U12" t="n">
         <v>195.3216553196605</v>
@@ -1511,13 +1511,13 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W12" t="n">
-        <v>66.8866960450668</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y12" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>75.932911238971</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.8687624919694</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.8066176520142</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>93.8572725810412</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>52.53516726463941</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>234.1233553083468</v>
       </c>
       <c r="U13" t="n">
         <v>277.7518810186436</v>
@@ -1590,10 +1590,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>18.59840807407401</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>268.0323207417995</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>277.7518810186435</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>277.7518810186435</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>244.6438568012213</v>
+        <v>254.3634170780652</v>
       </c>
       <c r="V14" t="n">
-        <v>277.7518810186436</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>277.7518810186436</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>277.7518810186436</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,22 +1685,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>105.0743705695598</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1739,22 +1739,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>127.5319341372558</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>195.3216553196605</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W15" t="n">
         <v>211.1008365810345</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>147.282814789066</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="16">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.6554611580705</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1779,10 +1779,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.8687624919694</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>141.8066176520142</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>85.83804368896404</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>234.1233553083468</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.7518810186435</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>277.7518810186438</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>220.1021723060605</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>277.7518810186436</v>
+        <v>277.7518810186438</v>
       </c>
       <c r="G17" t="n">
-        <v>277.7518810186436</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>277.7518810186436</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>24.54168449516086</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>244.6438568012214</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>277.7518810186438</v>
       </c>
     </row>
     <row r="18">
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>105.0743705695598</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>61.87069759640761</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>127.5319341372567</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>195.3216553196605</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X18" t="n">
-        <v>138.7050137338848</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>12.97457195120372</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>93.85727258104119</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>52.53516726463941</v>
       </c>
       <c r="S19" t="n">
         <v>172.1697413867937</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>234.1233553083468</v>
       </c>
       <c r="U19" t="n">
-        <v>277.7518810186436</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>80.55202199562714</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>277.7518810186438</v>
+        <v>277.7518810186436</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>277.7518810186436</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>277.7518810186438</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>31.57970394891251</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>97.90414802086315</v>
       </c>
       <c r="T20" t="n">
         <v>213.0641528523089</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>277.7518810186438</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>211.4274369466929</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
         <v>107.8702810193205</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>91.19898439450054</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>154.339112415581</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>36.1473753466374</v>
       </c>
       <c r="V21" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>211.1008365810345</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>107.2900555748682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.8687624919694</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>172.1697413867937</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>72.02487925702872</v>
+        <v>247.2257667433927</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>120.4141900211168</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>254.3124908149276</v>
@@ -2380,13 +2380,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>155.1005370495168</v>
       </c>
     </row>
     <row r="24">
@@ -2408,7 +2408,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F24" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>104.7337711575492</v>
@@ -2456,7 +2456,7 @@
         <v>195.2992474636072</v>
       </c>
       <c r="V24" t="n">
-        <v>211.5744117368965</v>
+        <v>184.4659737269659</v>
       </c>
       <c r="W24" t="n">
         <v>211.1008365810345</v>
@@ -2465,7 +2465,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y24" t="n">
-        <v>22.82922101055701</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="25">
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>134.4982996673692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T25" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>225.3787498750945</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>102.90623630114</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>277.6828714803805</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>62.50250760775863</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C27" t="n">
         <v>132.6551205385437</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>84.8724997021109</v>
+        <v>8.475005000638527</v>
       </c>
       <c r="T27" t="n">
         <v>152.9662577680471</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.2678442953623</v>
+        <v>132.7799299838996</v>
       </c>
       <c r="I28" t="n">
         <v>85.27009235220248</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>167.1934341018228</v>
@@ -2769,7 +2769,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U28" t="n">
-        <v>62.75122632803116</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
@@ -2806,10 +2806,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V29" t="n">
-        <v>235.1583489086713</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>14.49099499217445</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H30" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U30" t="n">
-        <v>195.2992474636072</v>
+        <v>118.901752762135</v>
       </c>
       <c r="V30" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W30" t="n">
-        <v>76.12211755178326</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X30" t="n">
         <v>174.5627220424961</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>50.93685563281188</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5832153864156</v>
       </c>
       <c r="H31" t="n">
-        <v>139.2678442953623</v>
+        <v>91.07875643007498</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>167.1934341018228</v>
@@ -3006,7 +3006,7 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9159111551209</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>285.4561336445241</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3037,13 +3037,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>402.4235511641288</v>
+        <v>49.83763812416963</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C33" t="n">
-        <v>132.6551205385437</v>
+        <v>82.54890121140333</v>
       </c>
       <c r="D33" t="n">
         <v>115.7281862028015</v>
@@ -3170,7 +3170,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W33" t="n">
-        <v>160.9946172538943</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X33" t="n">
         <v>174.5627220424961</v>
@@ -3189,7 +3189,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>232.9032904027983</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9159111551209</v>
+        <v>206.7963001096717</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>30.62891225009723</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>343.5132897706752</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>191.8024358057405</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
         <v>115.7281862028015</v>
@@ -3398,10 +3398,10 @@
         <v>84.8724997021109</v>
       </c>
       <c r="T36" t="n">
-        <v>152.9662577680471</v>
+        <v>17.98753873879522</v>
       </c>
       <c r="U36" t="n">
-        <v>192.9756489728998</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V36" t="n">
         <v>211.5744117368965</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>93.67813382860898</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>164.5832153864156</v>
       </c>
       <c r="H37" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>85.27009235220248</v>
+        <v>5.834324436820589</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>167.1934341018228</v>
       </c>
       <c r="T37" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>279.9159111551209</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>188.1847152351554</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>190.7594560546873</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>111.7915642992996</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C39" t="n">
         <v>132.6551205385437</v>
@@ -3593,7 +3593,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>104.7337711575492</v>
@@ -3644,7 +3644,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W39" t="n">
-        <v>211.1008365810345</v>
+        <v>76.12211755178372</v>
       </c>
       <c r="X39" t="n">
         <v>174.5627220424961</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>60.37982686616897</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5832153864156</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>85.27009235220248</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>39.69593104582557</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.1934341018228</v>
+        <v>118.1449069499165</v>
       </c>
       <c r="T40" t="n">
-        <v>232.9032904027983</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9159111551209</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>237.2065940406842</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>356.8784198655388</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3821,7 +3821,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6551205385437</v>
+        <v>56.2576258370711</v>
       </c>
       <c r="D42" t="n">
         <v>115.7281862028015</v>
@@ -3836,7 +3836,7 @@
         <v>104.7337711575492</v>
       </c>
       <c r="H42" t="n">
-        <v>58.58122432777904</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3875,7 +3875,7 @@
         <v>152.9662577680471</v>
       </c>
       <c r="U42" t="n">
-        <v>60.32052843435547</v>
+        <v>195.2992474636072</v>
       </c>
       <c r="V42" t="n">
         <v>211.5744117368965</v>
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.20742080413959</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5832153864156</v>
+        <v>22.19865417040252</v>
       </c>
       <c r="H43" t="n">
         <v>139.2678442953623</v>
       </c>
       <c r="I43" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.1820181724345</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3985,13 +3985,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>402.4235511641288</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.3124908149276</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>206.5753966059233</v>
       </c>
     </row>
     <row r="45">
@@ -4061,13 +4061,13 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.7281862028015</v>
+        <v>65.62196687566063</v>
       </c>
       <c r="E45" t="n">
-        <v>92.17944983766405</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
         <v>104.7337711575492</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>84.8724997021109</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>152.9662577680471</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.41453981090762</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5832153864156</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>167.1934341018228</v>
       </c>
       <c r="T46" t="n">
         <v>232.9032904027983</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9159111551209</v>
+        <v>278.3806339642375</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.524514328527528</v>
+        <v>7.390904304381422</v>
       </c>
       <c r="C5" t="n">
-        <v>3.658124352673633</v>
+        <v>5.746988013649312</v>
       </c>
       <c r="D5" t="n">
-        <v>3.658124352673633</v>
+        <v>5.746988013649312</v>
       </c>
       <c r="E5" t="n">
-        <v>2.014208061941523</v>
+        <v>3.880598037795417</v>
       </c>
       <c r="F5" t="n">
         <v>2.014208061941523</v>
@@ -4567,25 +4567,25 @@
         <v>0.1478180860876284</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1478180860876284</v>
+        <v>1.97706690142203</v>
       </c>
       <c r="K5" t="n">
         <v>1.97706690142203</v>
       </c>
       <c r="L5" t="n">
-        <v>3.806315716756433</v>
+        <v>1.97706690142203</v>
       </c>
       <c r="M5" t="n">
-        <v>3.806315716756433</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="N5" t="n">
-        <v>5.635564532090834</v>
+        <v>5.56165548904702</v>
       </c>
       <c r="O5" t="n">
-        <v>5.635564532090834</v>
+        <v>5.56165548904702</v>
       </c>
       <c r="P5" t="n">
-        <v>5.635564532090834</v>
+        <v>5.56165548904702</v>
       </c>
       <c r="Q5" t="n">
         <v>7.390904304381422</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.880598037795417</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="C6" t="n">
-        <v>2.014208061941523</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="D6" t="n">
-        <v>2.014208061941523</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="E6" t="n">
-        <v>2.014208061941523</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="F6" t="n">
-        <v>2.014208061941523</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="G6" t="n">
         <v>2.014208061941523</v>
@@ -4673,25 +4673,25 @@
         <v>7.390904304381422</v>
       </c>
       <c r="S6" t="n">
+        <v>7.390904304381422</v>
+      </c>
+      <c r="T6" t="n">
+        <v>7.390904304381422</v>
+      </c>
+      <c r="U6" t="n">
+        <v>7.390904304381422</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7.390904304381422</v>
+      </c>
+      <c r="W6" t="n">
         <v>5.524514328527528</v>
       </c>
-      <c r="T6" t="n">
-        <v>5.524514328527528</v>
-      </c>
-      <c r="U6" t="n">
-        <v>3.880598037795417</v>
-      </c>
-      <c r="V6" t="n">
-        <v>3.880598037795417</v>
-      </c>
-      <c r="W6" t="n">
-        <v>3.880598037795417</v>
-      </c>
       <c r="X6" t="n">
-        <v>3.880598037795417</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.880598037795417</v>
+        <v>3.658124352673633</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.791734376819739</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1478180860876284</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1478180860876284</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1478180860876284</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1478180860876284</v>
+        <v>2.014208061941523</v>
       </c>
       <c r="G7" t="n">
         <v>0.1478180860876284</v>
@@ -4731,16 +4731,16 @@
         <v>1.97706690142203</v>
       </c>
       <c r="L7" t="n">
-        <v>3.806315716756433</v>
+        <v>1.97706690142203</v>
       </c>
       <c r="M7" t="n">
-        <v>3.806315716756433</v>
+        <v>1.97706690142203</v>
       </c>
       <c r="N7" t="n">
-        <v>5.635564532090834</v>
+        <v>3.732406673712618</v>
       </c>
       <c r="O7" t="n">
-        <v>7.390904304381422</v>
+        <v>5.56165548904702</v>
       </c>
       <c r="P7" t="n">
         <v>7.390904304381422</v>
@@ -4749,25 +4749,25 @@
         <v>7.390904304381422</v>
       </c>
       <c r="R7" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="S7" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="T7" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="U7" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="V7" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="W7" t="n">
-        <v>7.390904304381422</v>
+        <v>5.524514328527528</v>
       </c>
       <c r="X7" t="n">
-        <v>5.524514328527528</v>
+        <v>3.658124352673633</v>
       </c>
       <c r="Y7" t="n">
         <v>3.658124352673633</v>
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58.19482943319967</v>
+        <v>39.62320291131964</v>
       </c>
       <c r="C8" t="n">
-        <v>52.11064278687386</v>
+        <v>33.53901626499383</v>
       </c>
       <c r="D8" t="n">
-        <v>51.68711692033847</v>
+        <v>33.11549039845843</v>
       </c>
       <c r="E8" t="n">
-        <v>41.38730547763923</v>
+        <v>22.8156789557592</v>
       </c>
       <c r="F8" t="n">
-        <v>24.39729747173084</v>
+        <v>5.825670949850808</v>
       </c>
       <c r="G8" t="n">
         <v>1.790461415642219</v>
@@ -4807,25 +4807,25 @@
         <v>1.790461415642219</v>
       </c>
       <c r="K8" t="n">
-        <v>1.790461415642219</v>
+        <v>23.94742143421468</v>
       </c>
       <c r="L8" t="n">
-        <v>8.206595928806893</v>
+        <v>30.36355594737935</v>
       </c>
       <c r="M8" t="n">
-        <v>28.17190399633252</v>
+        <v>50.32886401490498</v>
       </c>
       <c r="N8" t="n">
-        <v>50.32886401490498</v>
+        <v>72.48582403347744</v>
       </c>
       <c r="O8" t="n">
-        <v>65.85027225781101</v>
+        <v>88.00723227638348</v>
       </c>
       <c r="P8" t="n">
-        <v>67.36611076353849</v>
+        <v>88.00723227638348</v>
       </c>
       <c r="Q8" t="n">
-        <v>67.36611076353849</v>
+        <v>89.52307078211095</v>
       </c>
       <c r="R8" t="n">
         <v>89.52307078211095</v>
@@ -4843,13 +4843,13 @@
         <v>66.91623472602232</v>
       </c>
       <c r="W8" t="n">
-        <v>66.91623472602232</v>
+        <v>45.80397853540505</v>
       </c>
       <c r="X8" t="n">
-        <v>66.91623472602232</v>
+        <v>45.80397853540505</v>
       </c>
       <c r="Y8" t="n">
-        <v>64.37560505728509</v>
+        <v>45.80397853540505</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.3093986699337</v>
+        <v>1.790461415642219</v>
       </c>
       <c r="C9" t="n">
-        <v>44.3093986699337</v>
+        <v>1.790461415642219</v>
       </c>
       <c r="D9" t="n">
-        <v>44.3093986699337</v>
+        <v>1.790461415642219</v>
       </c>
       <c r="E9" t="n">
-        <v>44.3093986699337</v>
+        <v>1.790461415642219</v>
       </c>
       <c r="F9" t="n">
-        <v>24.39729747173084</v>
+        <v>1.790461415642219</v>
       </c>
       <c r="G9" t="n">
         <v>1.790461415642219</v>
@@ -4889,10 +4889,10 @@
         <v>1.790461415642219</v>
       </c>
       <c r="L9" t="n">
-        <v>20.55109058347969</v>
+        <v>11.41253270187837</v>
       </c>
       <c r="M9" t="n">
-        <v>42.70805060205215</v>
+        <v>33.56949272045082</v>
       </c>
       <c r="N9" t="n">
         <v>55.72645273902329</v>
@@ -4910,25 +4910,25 @@
         <v>89.52307078211095</v>
       </c>
       <c r="S9" t="n">
-        <v>66.91623472602232</v>
+        <v>89.52307078211095</v>
       </c>
       <c r="T9" t="n">
-        <v>66.91623472602232</v>
+        <v>89.52307078211095</v>
       </c>
       <c r="U9" t="n">
-        <v>44.3093986699337</v>
+        <v>89.52307078211095</v>
       </c>
       <c r="V9" t="n">
-        <v>44.3093986699337</v>
+        <v>89.52307078211095</v>
       </c>
       <c r="W9" t="n">
-        <v>44.3093986699337</v>
+        <v>69.61096958390809</v>
       </c>
       <c r="X9" t="n">
-        <v>44.3093986699337</v>
+        <v>47.00413352781947</v>
       </c>
       <c r="Y9" t="n">
-        <v>44.3093986699337</v>
+        <v>24.39729747173084</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.52307078211095</v>
+        <v>47.00413352781947</v>
       </c>
       <c r="C10" t="n">
-        <v>89.52307078211095</v>
+        <v>24.39729747173084</v>
       </c>
       <c r="D10" t="n">
-        <v>89.52307078211095</v>
+        <v>24.39729747173084</v>
       </c>
       <c r="E10" t="n">
-        <v>66.91623472602232</v>
+        <v>1.790461415642219</v>
       </c>
       <c r="F10" t="n">
-        <v>44.3093986699337</v>
+        <v>1.790461415642219</v>
       </c>
       <c r="G10" t="n">
-        <v>21.70256261384507</v>
+        <v>1.790461415642219</v>
       </c>
       <c r="H10" t="n">
         <v>1.790461415642219</v>
@@ -4962,52 +4962,52 @@
         <v>1.790461415642219</v>
       </c>
       <c r="J10" t="n">
-        <v>1.790461415642219</v>
+        <v>23.94742143421468</v>
       </c>
       <c r="K10" t="n">
-        <v>1.790461415642219</v>
+        <v>23.94742143421468</v>
       </c>
       <c r="L10" t="n">
         <v>23.94742143421468</v>
       </c>
       <c r="M10" t="n">
-        <v>45.20915074496602</v>
+        <v>23.94742143421468</v>
       </c>
       <c r="N10" t="n">
+        <v>46.10438145278714</v>
+      </c>
+      <c r="O10" t="n">
+        <v>46.10438145278714</v>
+      </c>
+      <c r="P10" t="n">
         <v>67.36611076353849</v>
-      </c>
-      <c r="O10" t="n">
-        <v>89.52307078211095</v>
-      </c>
-      <c r="P10" t="n">
-        <v>89.52307078211095</v>
       </c>
       <c r="Q10" t="n">
         <v>89.52307078211095</v>
       </c>
       <c r="R10" t="n">
-        <v>89.52307078211095</v>
+        <v>66.91623472602232</v>
       </c>
       <c r="S10" t="n">
-        <v>89.52307078211095</v>
+        <v>66.91623472602232</v>
       </c>
       <c r="T10" t="n">
-        <v>89.52307078211095</v>
+        <v>66.91623472602232</v>
       </c>
       <c r="U10" t="n">
-        <v>89.52307078211095</v>
+        <v>66.91623472602232</v>
       </c>
       <c r="V10" t="n">
-        <v>89.52307078211095</v>
+        <v>66.91623472602232</v>
       </c>
       <c r="W10" t="n">
-        <v>89.52307078211095</v>
+        <v>66.91623472602232</v>
       </c>
       <c r="X10" t="n">
-        <v>89.52307078211095</v>
+        <v>66.91623472602232</v>
       </c>
       <c r="Y10" t="n">
-        <v>89.52307078211095</v>
+        <v>66.91623472602232</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>863.8925172046538</v>
+        <v>358.3010079644554</v>
       </c>
       <c r="C11" t="n">
-        <v>583.3350616302664</v>
+        <v>327.5671863540213</v>
       </c>
       <c r="D11" t="n">
-        <v>302.7776060558789</v>
+        <v>327.5671863540213</v>
       </c>
       <c r="E11" t="n">
-        <v>22.22015048149149</v>
+        <v>327.5671863540213</v>
       </c>
       <c r="F11" t="n">
-        <v>22.22015048149149</v>
+        <v>327.5671863540213</v>
       </c>
       <c r="G11" t="n">
-        <v>22.22015048149149</v>
+        <v>327.5671863540213</v>
       </c>
       <c r="H11" t="n">
-        <v>22.22015048149149</v>
+        <v>47.00973077963379</v>
       </c>
       <c r="I11" t="n">
         <v>22.22015048149149</v>
       </c>
       <c r="J11" t="n">
-        <v>82.46256888849838</v>
+        <v>82.46256888849848</v>
       </c>
       <c r="K11" t="n">
-        <v>193.2994377342485</v>
+        <v>193.2994377342486</v>
       </c>
       <c r="L11" t="n">
-        <v>345.7475879562359</v>
+        <v>345.747587956236</v>
       </c>
       <c r="M11" t="n">
-        <v>528.2016508569083</v>
+        <v>528.2016508569084</v>
       </c>
       <c r="N11" t="n">
-        <v>715.476603638591</v>
+        <v>715.4766036385911</v>
       </c>
       <c r="O11" t="n">
         <v>886.9142502526765</v>
@@ -5071,22 +5071,22 @@
         <v>1111.007524074574</v>
       </c>
       <c r="T11" t="n">
-        <v>1111.007524074574</v>
+        <v>895.7912080621411</v>
       </c>
       <c r="U11" t="n">
-        <v>1111.007524074574</v>
+        <v>638.8584635388429</v>
       </c>
       <c r="V11" t="n">
-        <v>1111.007524074574</v>
+        <v>358.3010079644554</v>
       </c>
       <c r="W11" t="n">
-        <v>1111.007524074574</v>
+        <v>358.3010079644554</v>
       </c>
       <c r="X11" t="n">
-        <v>1111.007524074574</v>
+        <v>358.3010079644554</v>
       </c>
       <c r="Y11" t="n">
-        <v>1111.007524074574</v>
+        <v>358.3010079644554</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>84.71580461927695</v>
+        <v>156.2152217325458</v>
       </c>
       <c r="C12" t="n">
-        <v>84.71580461927695</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="D12" t="n">
-        <v>84.71580461927695</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="E12" t="n">
-        <v>84.71580461927695</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="F12" t="n">
-        <v>84.71580461927695</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="G12" t="n">
-        <v>84.71580461927695</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="H12" t="n">
         <v>22.22015048149149</v>
@@ -5120,25 +5120,25 @@
         <v>22.22015048149149</v>
       </c>
       <c r="J12" t="n">
-        <v>50.47889416524075</v>
+        <v>285.4657568820459</v>
       </c>
       <c r="K12" t="n">
-        <v>255.5705856826152</v>
+        <v>365.4171548376391</v>
       </c>
       <c r="L12" t="n">
-        <v>381.835736017078</v>
+        <v>491.6823051721018</v>
       </c>
       <c r="M12" t="n">
-        <v>537.0207425247739</v>
+        <v>646.8673116797977</v>
       </c>
       <c r="N12" t="n">
-        <v>811.9951047332311</v>
+        <v>811.9951047332313</v>
       </c>
       <c r="O12" t="n">
-        <v>954.0557579887206</v>
+        <v>954.0557579887209</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.242064686148</v>
+        <v>1060.242064686149</v>
       </c>
       <c r="Q12" t="n">
         <v>1111.007524074574</v>
@@ -5147,25 +5147,25 @@
         <v>1111.007524074574</v>
       </c>
       <c r="S12" t="n">
-        <v>1018.887337817503</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="T12" t="n">
-        <v>862.9892444684314</v>
+        <v>956.7805001972808</v>
       </c>
       <c r="U12" t="n">
-        <v>665.694643135441</v>
+        <v>759.4858988642904</v>
       </c>
       <c r="V12" t="n">
-        <v>451.9831161284748</v>
+        <v>545.7743718573242</v>
       </c>
       <c r="W12" t="n">
-        <v>384.4207968910335</v>
+        <v>332.541203593653</v>
       </c>
       <c r="X12" t="n">
-        <v>384.4207968910335</v>
+        <v>156.2152217325458</v>
       </c>
       <c r="Y12" t="n">
-        <v>225.0188372548636</v>
+        <v>156.2152217325458</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>503.4984979198711</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="C13" t="n">
-        <v>503.4984979198711</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="D13" t="n">
-        <v>503.4984979198711</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="E13" t="n">
-        <v>503.4984979198711</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="F13" t="n">
-        <v>426.7985875774762</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="G13" t="n">
-        <v>260.2644840502343</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="H13" t="n">
-        <v>117.0254763209271</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="I13" t="n">
         <v>22.22015048149149</v>
       </c>
       <c r="J13" t="n">
-        <v>76.93719029988975</v>
+        <v>85.93646303597816</v>
       </c>
       <c r="K13" t="n">
-        <v>313.0530377659556</v>
+        <v>322.052310502044</v>
       </c>
       <c r="L13" t="n">
-        <v>363.3442507460918</v>
+        <v>597.0266727105011</v>
       </c>
       <c r="M13" t="n">
-        <v>638.3186129545489</v>
+        <v>651.3713100704197</v>
       </c>
       <c r="N13" t="n">
-        <v>913.2929751630061</v>
+        <v>806.3474533938573</v>
       </c>
       <c r="O13" t="n">
-        <v>957.0080596370181</v>
+        <v>1081.321815602314</v>
       </c>
       <c r="P13" t="n">
-        <v>986.693768109278</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="Q13" t="n">
         <v>1111.007524074574</v>
       </c>
       <c r="R13" t="n">
-        <v>1057.941698554737</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="S13" t="n">
-        <v>1057.941698554737</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="T13" t="n">
-        <v>1057.941698554737</v>
+        <v>874.5192863893756</v>
       </c>
       <c r="U13" t="n">
-        <v>777.3842429803492</v>
+        <v>593.9618308149882</v>
       </c>
       <c r="V13" t="n">
-        <v>503.4984979198711</v>
+        <v>320.0760857545101</v>
       </c>
       <c r="W13" t="n">
-        <v>503.4984979198711</v>
+        <v>41.00642126338442</v>
       </c>
       <c r="X13" t="n">
-        <v>503.4984979198711</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="Y13" t="n">
-        <v>503.4984979198711</v>
+        <v>22.22015048149149</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.22015048149149</v>
+        <v>854.0747795512759</v>
       </c>
       <c r="C14" t="n">
-        <v>22.22015048149149</v>
+        <v>583.3350616302663</v>
       </c>
       <c r="D14" t="n">
-        <v>22.22015048149149</v>
+        <v>302.7776060558789</v>
       </c>
       <c r="E14" t="n">
-        <v>22.22015048149149</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="F14" t="n">
-        <v>22.22015048149149</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="G14" t="n">
-        <v>22.22015048149149</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="H14" t="n">
-        <v>22.22015048149149</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="I14" t="n">
-        <v>22.22015048149149</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="J14" t="n">
-        <v>82.46256888849837</v>
+        <v>82.46256888849848</v>
       </c>
       <c r="K14" t="n">
         <v>193.2994377342486</v>
@@ -5290,10 +5290,10 @@
         <v>528.2016508569084</v>
       </c>
       <c r="N14" t="n">
-        <v>715.4766036385911</v>
+        <v>715.476603638591</v>
       </c>
       <c r="O14" t="n">
-        <v>886.9142502526767</v>
+        <v>886.9142502526764</v>
       </c>
       <c r="P14" t="n">
         <v>1019.259409939787</v>
@@ -5302,28 +5302,28 @@
         <v>1099.135150843744</v>
       </c>
       <c r="R14" t="n">
-        <v>1111.007524074575</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="S14" t="n">
-        <v>1111.007524074575</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="T14" t="n">
-        <v>1111.007524074575</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="U14" t="n">
-        <v>863.892517204654</v>
+        <v>854.0747795512759</v>
       </c>
       <c r="V14" t="n">
-        <v>583.3350616302665</v>
+        <v>854.0747795512759</v>
       </c>
       <c r="W14" t="n">
-        <v>302.777606055879</v>
+        <v>854.0747795512759</v>
       </c>
       <c r="X14" t="n">
-        <v>22.22015048149149</v>
+        <v>854.0747795512759</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.22015048149149</v>
+        <v>854.0747795512759</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>608.7008031863611</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="C15" t="n">
-        <v>474.7057319353067</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="D15" t="n">
-        <v>357.8085741546992</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="E15" t="n">
-        <v>237.3157581470271</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="F15" t="n">
-        <v>128.3558783295317</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="G15" t="n">
-        <v>22.22015048149149</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="H15" t="n">
-        <v>22.22015048149149</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="I15" t="n">
-        <v>22.22015048149149</v>
+        <v>30.71539136806881</v>
       </c>
       <c r="J15" t="n">
-        <v>50.47889416524075</v>
+        <v>58.97413505181805</v>
       </c>
       <c r="K15" t="n">
-        <v>141.2082520176078</v>
+        <v>283.8664609429341</v>
       </c>
       <c r="L15" t="n">
-        <v>267.4734023520706</v>
+        <v>410.1316112773968</v>
       </c>
       <c r="M15" t="n">
-        <v>422.6584088597664</v>
+        <v>565.3166177850926</v>
       </c>
       <c r="N15" t="n">
-        <v>587.7862019132001</v>
+        <v>730.4444108385262</v>
       </c>
       <c r="O15" t="n">
-        <v>729.8468551686897</v>
+        <v>872.5050640940157</v>
       </c>
       <c r="P15" t="n">
-        <v>836.0331618661173</v>
+        <v>978.6913707914433</v>
       </c>
       <c r="Q15" t="n">
-        <v>1111.007524074575</v>
+        <v>1029.456830179869</v>
       </c>
       <c r="R15" t="n">
-        <v>1111.007524074575</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="S15" t="n">
-        <v>1111.007524074575</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="T15" t="n">
-        <v>1111.007524074575</v>
+        <v>982.1873885823966</v>
       </c>
       <c r="U15" t="n">
-        <v>1111.007524074575</v>
+        <v>784.8927872494062</v>
       </c>
       <c r="V15" t="n">
-        <v>1111.007524074575</v>
+        <v>571.18126024244</v>
       </c>
       <c r="W15" t="n">
-        <v>897.7743558109033</v>
+        <v>357.9480919787687</v>
       </c>
       <c r="X15" t="n">
-        <v>897.7743558109033</v>
+        <v>181.6221101176615</v>
       </c>
       <c r="Y15" t="n">
-        <v>749.0038358219477</v>
+        <v>22.22015048149148</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>988.1232198745033</v>
+        <v>507.2567361796707</v>
       </c>
       <c r="C16" t="n">
-        <v>817.0298474362198</v>
+        <v>507.2567361796707</v>
       </c>
       <c r="D16" t="n">
-        <v>657.5352027591298</v>
+        <v>347.7620915025807</v>
       </c>
       <c r="E16" t="n">
-        <v>496.6243876274493</v>
+        <v>186.8512763709002</v>
       </c>
       <c r="F16" t="n">
-        <v>331.9932617380406</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="G16" t="n">
-        <v>165.4591582107987</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="H16" t="n">
-        <v>22.22015048149149</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="I16" t="n">
-        <v>22.22015048149149</v>
+        <v>22.22015048149148</v>
       </c>
       <c r="J16" t="n">
-        <v>22.22015048149149</v>
+        <v>85.93646303597815</v>
       </c>
       <c r="K16" t="n">
-        <v>81.79376003151043</v>
+        <v>322.052310502044</v>
       </c>
       <c r="L16" t="n">
-        <v>132.0849730116466</v>
+        <v>372.3435234821802</v>
       </c>
       <c r="M16" t="n">
-        <v>407.0593352201038</v>
+        <v>426.6881608420987</v>
       </c>
       <c r="N16" t="n">
-        <v>682.033697428561</v>
+        <v>701.6625230505558</v>
       </c>
       <c r="O16" t="n">
-        <v>957.0080596370183</v>
+        <v>836.0331618661171</v>
       </c>
       <c r="P16" t="n">
-        <v>986.6937681092783</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="Q16" t="n">
-        <v>1111.007524074575</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="R16" t="n">
-        <v>1111.007524074575</v>
+        <v>1111.007524074574</v>
       </c>
       <c r="S16" t="n">
-        <v>1111.007524074575</v>
+        <v>1024.302429439257</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.007524074575</v>
+        <v>787.8141917540581</v>
       </c>
       <c r="U16" t="n">
-        <v>1111.007524074575</v>
+        <v>507.2567361796707</v>
       </c>
       <c r="V16" t="n">
-        <v>1111.007524074575</v>
+        <v>507.2567361796707</v>
       </c>
       <c r="W16" t="n">
-        <v>1111.007524074575</v>
+        <v>507.2567361796707</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.007524074575</v>
+        <v>507.2567361796707</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.007524074575</v>
+        <v>507.2567361796707</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1111.007524074575</v>
+        <v>302.7776060558791</v>
       </c>
       <c r="C17" t="n">
-        <v>1111.007524074575</v>
+        <v>302.7776060558791</v>
       </c>
       <c r="D17" t="n">
-        <v>1111.007524074575</v>
+        <v>302.7776060558791</v>
       </c>
       <c r="E17" t="n">
-        <v>888.6820975027963</v>
+        <v>302.7776060558791</v>
       </c>
       <c r="F17" t="n">
-        <v>608.1246419284088</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="G17" t="n">
-        <v>327.5671863540213</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="H17" t="n">
-        <v>47.00973077963377</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="I17" t="n">
-        <v>22.22015048149149</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="J17" t="n">
-        <v>82.46256888849841</v>
+        <v>82.46256888849848</v>
       </c>
       <c r="K17" t="n">
         <v>193.2994377342486</v>
       </c>
       <c r="L17" t="n">
-        <v>345.747587956236</v>
+        <v>345.7475879562361</v>
       </c>
       <c r="M17" t="n">
-        <v>528.2016508569085</v>
+        <v>528.2016508569086</v>
       </c>
       <c r="N17" t="n">
-        <v>715.4766036385912</v>
+        <v>715.4766036385913</v>
       </c>
       <c r="O17" t="n">
-        <v>886.9142502526768</v>
+        <v>886.9142502526769</v>
       </c>
       <c r="P17" t="n">
         <v>1019.259409939788</v>
@@ -5548,19 +5548,19 @@
         <v>1111.007524074575</v>
       </c>
       <c r="U17" t="n">
-        <v>1111.007524074575</v>
+        <v>863.8925172046544</v>
       </c>
       <c r="V17" t="n">
-        <v>1111.007524074575</v>
+        <v>863.8925172046544</v>
       </c>
       <c r="W17" t="n">
-        <v>1111.007524074575</v>
+        <v>863.8925172046544</v>
       </c>
       <c r="X17" t="n">
-        <v>1111.007524074575</v>
+        <v>863.8925172046544</v>
       </c>
       <c r="Y17" t="n">
-        <v>1111.007524074575</v>
+        <v>583.3350616302668</v>
       </c>
     </row>
     <row r="18">
@@ -5570,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>671.1964573241464</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="C18" t="n">
-        <v>537.2013860730922</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="D18" t="n">
-        <v>420.3042282924846</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="E18" t="n">
-        <v>299.8114122848126</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="F18" t="n">
-        <v>190.8515324673172</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="G18" t="n">
-        <v>84.71580461927695</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="H18" t="n">
-        <v>22.22015048149149</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="I18" t="n">
-        <v>22.22015048149149</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="J18" t="n">
-        <v>203.9150629873407</v>
+        <v>285.465756882046</v>
       </c>
       <c r="K18" t="n">
-        <v>283.866460942934</v>
+        <v>365.4171548376393</v>
       </c>
       <c r="L18" t="n">
-        <v>410.1316112773968</v>
+        <v>491.6823051721021</v>
       </c>
       <c r="M18" t="n">
-        <v>565.3166177850927</v>
+        <v>646.867311679798</v>
       </c>
       <c r="N18" t="n">
-        <v>730.4444108385264</v>
+        <v>811.9951047332318</v>
       </c>
       <c r="O18" t="n">
-        <v>872.505064094016</v>
+        <v>954.0557579887213</v>
       </c>
       <c r="P18" t="n">
-        <v>978.6913707914438</v>
+        <v>1060.242064686149</v>
       </c>
       <c r="Q18" t="n">
-        <v>1029.45683017987</v>
+        <v>1111.007524074575</v>
       </c>
       <c r="R18" t="n">
         <v>1111.007524074575</v>
@@ -5624,22 +5624,22 @@
         <v>1111.007524074575</v>
       </c>
       <c r="T18" t="n">
-        <v>1111.007524074575</v>
+        <v>982.1873885823966</v>
       </c>
       <c r="U18" t="n">
-        <v>1111.007524074575</v>
+        <v>784.8927872494062</v>
       </c>
       <c r="V18" t="n">
-        <v>1111.007524074575</v>
+        <v>571.18126024244</v>
       </c>
       <c r="W18" t="n">
-        <v>1111.007524074575</v>
+        <v>357.9480919787687</v>
       </c>
       <c r="X18" t="n">
-        <v>970.901449595903</v>
+        <v>181.6221101176615</v>
       </c>
       <c r="Y18" t="n">
-        <v>811.4994899597331</v>
+        <v>22.2201504814915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>22.22015048149149</v>
+        <v>130.1311045544662</v>
       </c>
       <c r="C19" t="n">
-        <v>22.22015048149149</v>
+        <v>130.1311045544662</v>
       </c>
       <c r="D19" t="n">
-        <v>22.22015048149149</v>
+        <v>130.1311045544662</v>
       </c>
       <c r="E19" t="n">
-        <v>22.22015048149149</v>
+        <v>130.1311045544662</v>
       </c>
       <c r="F19" t="n">
-        <v>22.22015048149149</v>
+        <v>130.1311045544662</v>
       </c>
       <c r="G19" t="n">
-        <v>22.22015048149149</v>
+        <v>117.0254763209271</v>
       </c>
       <c r="H19" t="n">
-        <v>22.22015048149149</v>
+        <v>117.0254763209271</v>
       </c>
       <c r="I19" t="n">
-        <v>22.22015048149149</v>
+        <v>22.2201504814915</v>
       </c>
       <c r="J19" t="n">
         <v>85.93646303597819</v>
@@ -5679,16 +5679,16 @@
         <v>115.7721169163299</v>
       </c>
       <c r="L19" t="n">
-        <v>256.3987289769428</v>
+        <v>390.7464791247872</v>
       </c>
       <c r="M19" t="n">
-        <v>531.3730911854</v>
+        <v>445.0911164847058</v>
       </c>
       <c r="N19" t="n">
-        <v>806.3474533938572</v>
+        <v>561.0587996576605</v>
       </c>
       <c r="O19" t="n">
-        <v>1081.321815602314</v>
+        <v>836.0331618661178</v>
       </c>
       <c r="P19" t="n">
         <v>1111.007524074575</v>
@@ -5697,28 +5697,28 @@
         <v>1111.007524074575</v>
       </c>
       <c r="R19" t="n">
-        <v>1111.007524074575</v>
+        <v>1057.941698554737</v>
       </c>
       <c r="S19" t="n">
-        <v>937.0986943909445</v>
+        <v>884.0328688711072</v>
       </c>
       <c r="T19" t="n">
-        <v>937.0986943909445</v>
+        <v>647.5446311859084</v>
       </c>
       <c r="U19" t="n">
-        <v>656.541238816557</v>
+        <v>647.5446311859084</v>
       </c>
       <c r="V19" t="n">
-        <v>382.6554937560789</v>
+        <v>647.5446311859084</v>
       </c>
       <c r="W19" t="n">
-        <v>103.5858292649532</v>
+        <v>368.4749666947828</v>
       </c>
       <c r="X19" t="n">
-        <v>22.22015048149149</v>
+        <v>130.1311045544662</v>
       </c>
       <c r="Y19" t="n">
-        <v>22.22015048149149</v>
+        <v>130.1311045544662</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>334.6762969133665</v>
+        <v>302.777606055879</v>
       </c>
       <c r="C20" t="n">
-        <v>334.6762969133665</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="D20" t="n">
-        <v>334.6762969133665</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="E20" t="n">
-        <v>334.6762969133665</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="F20" t="n">
-        <v>334.6762969133665</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="G20" t="n">
-        <v>54.11884133897888</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="H20" t="n">
-        <v>22.2201504814915</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="I20" t="n">
-        <v>22.2201504814915</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="J20" t="n">
-        <v>82.46256888849814</v>
+        <v>82.46256888849841</v>
       </c>
       <c r="K20" t="n">
-        <v>193.2994377342483</v>
+        <v>193.2994377342486</v>
       </c>
       <c r="L20" t="n">
-        <v>345.7475879562358</v>
+        <v>345.747587956236</v>
       </c>
       <c r="M20" t="n">
         <v>528.2016508569085</v>
@@ -5767,7 +5767,7 @@
         <v>715.4766036385912</v>
       </c>
       <c r="O20" t="n">
-        <v>886.914250252677</v>
+        <v>886.9142502526768</v>
       </c>
       <c r="P20" t="n">
         <v>1019.259409939788</v>
@@ -5779,25 +5779,25 @@
         <v>1111.007524074575</v>
       </c>
       <c r="S20" t="n">
-        <v>1111.007524074575</v>
+        <v>1012.114445265622</v>
       </c>
       <c r="T20" t="n">
-        <v>895.7912080621418</v>
+        <v>796.8981292531887</v>
       </c>
       <c r="U20" t="n">
-        <v>895.7912080621418</v>
+        <v>796.8981292531887</v>
       </c>
       <c r="V20" t="n">
-        <v>615.2337524877541</v>
+        <v>796.8981292531887</v>
       </c>
       <c r="W20" t="n">
-        <v>615.2337524877541</v>
+        <v>796.8981292531887</v>
       </c>
       <c r="X20" t="n">
-        <v>615.2337524877541</v>
+        <v>583.3350616302665</v>
       </c>
       <c r="Y20" t="n">
-        <v>615.2337524877541</v>
+        <v>583.3350616302665</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>327.6707556878267</v>
+        <v>565.0607294761062</v>
       </c>
       <c r="C21" t="n">
-        <v>193.6756844367724</v>
+        <v>431.0656582250519</v>
       </c>
       <c r="D21" t="n">
-        <v>193.6756844367724</v>
+        <v>314.1685004444444</v>
       </c>
       <c r="E21" t="n">
         <v>193.6756844367724</v>
       </c>
       <c r="F21" t="n">
-        <v>84.71580461927697</v>
+        <v>84.71580461927695</v>
       </c>
       <c r="G21" t="n">
-        <v>84.71580461927697</v>
+        <v>84.71580461927695</v>
       </c>
       <c r="H21" t="n">
-        <v>22.2201504814915</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="I21" t="n">
-        <v>30.71539136806884</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="J21" t="n">
-        <v>58.97413505181811</v>
+        <v>285.4657568820456</v>
       </c>
       <c r="K21" t="n">
-        <v>196.6290993266097</v>
+        <v>365.4171548376389</v>
       </c>
       <c r="L21" t="n">
-        <v>322.8942496610725</v>
+        <v>491.6823051721017</v>
       </c>
       <c r="M21" t="n">
-        <v>478.0792561687684</v>
+        <v>646.8673116797976</v>
       </c>
       <c r="N21" t="n">
-        <v>643.2070492222022</v>
+        <v>811.9951047332313</v>
       </c>
       <c r="O21" t="n">
-        <v>785.2677024776917</v>
+        <v>954.0557579887209</v>
       </c>
       <c r="P21" t="n">
         <v>1060.242064686149</v>
@@ -5858,25 +5858,25 @@
         <v>1111.007524074575</v>
       </c>
       <c r="S21" t="n">
-        <v>1018.887337817504</v>
+        <v>1111.007524074575</v>
       </c>
       <c r="T21" t="n">
-        <v>862.989244468432</v>
+        <v>955.1094307255029</v>
       </c>
       <c r="U21" t="n">
-        <v>862.989244468432</v>
+        <v>918.5969303753641</v>
       </c>
       <c r="V21" t="n">
-        <v>649.2777174614658</v>
+        <v>918.5969303753641</v>
       </c>
       <c r="W21" t="n">
-        <v>436.0445491977946</v>
+        <v>705.3637621116928</v>
       </c>
       <c r="X21" t="n">
-        <v>436.0445491977946</v>
+        <v>705.3637621116928</v>
       </c>
       <c r="Y21" t="n">
-        <v>327.6707556878267</v>
+        <v>705.3637621116928</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>22.2201504814915</v>
+        <v>188.7542540087334</v>
       </c>
       <c r="C22" t="n">
-        <v>22.2201504814915</v>
+        <v>188.7542540087334</v>
       </c>
       <c r="D22" t="n">
-        <v>22.2201504814915</v>
+        <v>188.7542540087334</v>
       </c>
       <c r="E22" t="n">
-        <v>22.2201504814915</v>
+        <v>188.7542540087334</v>
       </c>
       <c r="F22" t="n">
-        <v>22.2201504814915</v>
+        <v>188.7542540087334</v>
       </c>
       <c r="G22" t="n">
-        <v>22.2201504814915</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="H22" t="n">
-        <v>22.2201504814915</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="I22" t="n">
-        <v>22.2201504814915</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="J22" t="n">
-        <v>22.2201504814915</v>
+        <v>22.22015048149149</v>
       </c>
       <c r="K22" t="n">
-        <v>52.05580436184323</v>
+        <v>52.05580436184322</v>
       </c>
       <c r="L22" t="n">
-        <v>102.3470173419795</v>
+        <v>107.4260441239882</v>
       </c>
       <c r="M22" t="n">
         <v>161.7706814839067</v>
       </c>
       <c r="N22" t="n">
-        <v>436.745043692364</v>
+        <v>436.7450436923639</v>
       </c>
       <c r="O22" t="n">
-        <v>711.7194059008214</v>
+        <v>711.7194059008211</v>
       </c>
       <c r="P22" t="n">
-        <v>986.6937681092787</v>
+        <v>986.6937681092783</v>
       </c>
       <c r="Q22" t="n">
         <v>1111.007524074575</v>
@@ -5937,25 +5937,25 @@
         <v>1111.007524074575</v>
       </c>
       <c r="S22" t="n">
-        <v>1111.007524074575</v>
+        <v>937.0986943909445</v>
       </c>
       <c r="T22" t="n">
-        <v>1111.007524074575</v>
+        <v>937.0986943909445</v>
       </c>
       <c r="U22" t="n">
-        <v>1038.255120784647</v>
+        <v>687.3756976804468</v>
       </c>
       <c r="V22" t="n">
-        <v>764.369375724169</v>
+        <v>413.4899526199687</v>
       </c>
       <c r="W22" t="n">
-        <v>485.2997112330434</v>
+        <v>413.4899526199687</v>
       </c>
       <c r="X22" t="n">
-        <v>246.9558490927268</v>
+        <v>413.4899526199687</v>
       </c>
       <c r="Y22" t="n">
-        <v>22.2201504814915</v>
+        <v>188.7542540087334</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>983.8393058759204</v>
+        <v>740.0538682403713</v>
       </c>
       <c r="C23" t="n">
-        <v>573.7147151891905</v>
+        <v>740.0538682403713</v>
       </c>
       <c r="D23" t="n">
-        <v>573.7147151891905</v>
+        <v>740.0538682403713</v>
       </c>
       <c r="E23" t="n">
-        <v>159.3744997060872</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="F23" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G23" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H23" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I23" t="n">
         <v>37.74400473526221</v>
@@ -5992,19 +5992,19 @@
         <v>151.474921851223</v>
       </c>
       <c r="K23" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987909</v>
       </c>
       <c r="L23" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131304</v>
       </c>
       <c r="M23" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655645</v>
       </c>
       <c r="N23" t="n">
-        <v>1187.216805582613</v>
+        <v>1187.216805582614</v>
       </c>
       <c r="O23" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P23" t="n">
         <v>1687.808675484973</v>
@@ -6016,25 +6016,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S23" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T23" t="n">
-        <v>1590.558164392902</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U23" t="n">
-        <v>1333.67686053944</v>
+        <v>1630.318932909648</v>
       </c>
       <c r="V23" t="n">
-        <v>983.8393058759204</v>
+        <v>1280.481378246129</v>
       </c>
       <c r="W23" t="n">
-        <v>983.8393058759204</v>
+        <v>896.7210773812974</v>
       </c>
       <c r="X23" t="n">
-        <v>983.8393058759204</v>
+        <v>896.7210773812974</v>
       </c>
       <c r="Y23" t="n">
-        <v>983.8393058759204</v>
+        <v>740.0538682403713</v>
       </c>
     </row>
     <row r="24">
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>683.0535714964635</v>
+        <v>574.0936916789681</v>
       </c>
       <c r="C24" t="n">
-        <v>549.0585002454092</v>
+        <v>440.0986204279138</v>
       </c>
       <c r="D24" t="n">
-        <v>432.1613424648016</v>
+        <v>323.2014626473062</v>
       </c>
       <c r="E24" t="n">
-        <v>311.6685264571296</v>
+        <v>202.7086466396342</v>
       </c>
       <c r="F24" t="n">
         <v>202.7086466396342</v>
@@ -6062,10 +6062,10 @@
         <v>96.91695860170569</v>
       </c>
       <c r="H24" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I24" t="n">
-        <v>57.84875584306886</v>
+        <v>57.84875584306887</v>
       </c>
       <c r="J24" t="n">
         <v>361.6332868996043</v>
@@ -6077,16 +6077,16 @@
         <v>695.5130379051964</v>
       </c>
       <c r="M24" t="n">
-        <v>1133.186599082843</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N24" t="n">
-        <v>1386.012780239293</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O24" t="n">
-        <v>1608.300325338226</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P24" t="n">
-        <v>1778.87578566774</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q24" t="n">
         <v>1872.683689066186</v>
@@ -6104,16 +6104,16 @@
         <v>1449.687100466378</v>
       </c>
       <c r="V24" t="n">
-        <v>1235.975573459411</v>
+        <v>1263.357834075503</v>
       </c>
       <c r="W24" t="n">
-        <v>1022.74240519574</v>
+        <v>1050.124665811832</v>
       </c>
       <c r="X24" t="n">
-        <v>846.416423334633</v>
+        <v>873.7986839507247</v>
       </c>
       <c r="Y24" t="n">
-        <v>823.3566041320502</v>
+        <v>714.3967243145547</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>816.2456337186586</v>
+        <v>839.8834100448705</v>
       </c>
       <c r="C25" t="n">
-        <v>645.1522612803751</v>
+        <v>668.790037606587</v>
       </c>
       <c r="D25" t="n">
-        <v>645.1522612803751</v>
+        <v>509.2953929294971</v>
       </c>
       <c r="E25" t="n">
         <v>509.2953929294971</v>
@@ -6141,10 +6141,10 @@
         <v>178.4185949325979</v>
       </c>
       <c r="H25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I25" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J25" t="n">
         <v>121.4466158487821</v>
@@ -6153,19 +6153,19 @@
         <v>390.4060913956559</v>
       </c>
       <c r="L25" t="n">
-        <v>527.7131151472369</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M25" t="n">
-        <v>971.3373006910319</v>
+        <v>895.3627879183791</v>
       </c>
       <c r="N25" t="n">
-        <v>1402.86587333036</v>
+        <v>1015.694429651405</v>
       </c>
       <c r="O25" t="n">
-        <v>1801.612894797479</v>
+        <v>1414.441451118524</v>
       </c>
       <c r="P25" t="n">
-        <v>1865.488871500339</v>
+        <v>1739.214911294502</v>
       </c>
       <c r="Q25" t="n">
         <v>1887.20023676311</v>
@@ -6174,25 +6174,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S25" t="n">
-        <v>1887.20023676311</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="T25" t="n">
-        <v>1651.944387871395</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="U25" t="n">
-        <v>1369.201043270262</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="V25" t="n">
-        <v>1095.315298209784</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="W25" t="n">
-        <v>816.2456337186586</v>
+        <v>1490.662677190467</v>
       </c>
       <c r="X25" t="n">
-        <v>816.2456337186586</v>
+        <v>1252.31881505015</v>
       </c>
       <c r="Y25" t="n">
-        <v>816.2456337186586</v>
+        <v>1027.583116438915</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>873.114632264678</v>
+        <v>839.7839366774728</v>
       </c>
       <c r="C26" t="n">
-        <v>873.114632264678</v>
+        <v>429.6593459907428</v>
       </c>
       <c r="D26" t="n">
-        <v>873.114632264678</v>
+        <v>429.6593459907428</v>
       </c>
       <c r="E26" t="n">
-        <v>458.7744167815746</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="F26" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G26" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H26" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I26" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J26" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K26" t="n">
-        <v>342.4771847987903</v>
+        <v>342.4771847987904</v>
       </c>
       <c r="L26" t="n">
         <v>594.3775951131297</v>
@@ -6241,7 +6241,7 @@
         <v>1187.216805582613</v>
       </c>
       <c r="O26" t="n">
-        <v>1464.838169622267</v>
+        <v>1464.838169622266</v>
       </c>
       <c r="P26" t="n">
         <v>1687.808675484973</v>
@@ -6253,25 +6253,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S26" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T26" t="n">
-        <v>1887.20023676311</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U26" t="n">
-        <v>1887.20023676311</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="V26" t="n">
-        <v>1537.362682099591</v>
+        <v>1240.720609729383</v>
       </c>
       <c r="W26" t="n">
-        <v>1153.602381234759</v>
+        <v>1240.720609729383</v>
       </c>
       <c r="X26" t="n">
-        <v>873.114632264678</v>
+        <v>1240.720609729383</v>
       </c>
       <c r="Y26" t="n">
-        <v>873.114632264678</v>
+        <v>839.7839366774728</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I27" t="n">
-        <v>38.28095199337146</v>
+        <v>57.84875584306886</v>
       </c>
       <c r="J27" t="n">
-        <v>342.0654830499069</v>
+        <v>361.6332868996043</v>
       </c>
       <c r="K27" t="n">
-        <v>476.4662234023154</v>
+        <v>496.0340272520128</v>
       </c>
       <c r="L27" t="n">
-        <v>675.945234055499</v>
+        <v>695.5130379051964</v>
       </c>
       <c r="M27" t="n">
-        <v>916.5673622804454</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N27" t="n">
-        <v>1169.393543436895</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O27" t="n">
-        <v>1391.681088535828</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P27" t="n">
-        <v>1562.256548865342</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q27" t="n">
         <v>1872.683689066186</v>
@@ -6332,25 +6332,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S27" t="n">
-        <v>1801.47043908421</v>
+        <v>1878.639625651354</v>
       </c>
       <c r="T27" t="n">
-        <v>1646.959067601334</v>
+        <v>1724.128254168478</v>
       </c>
       <c r="U27" t="n">
-        <v>1449.687100466378</v>
+        <v>1526.856287033521</v>
       </c>
       <c r="V27" t="n">
-        <v>1235.975573459411</v>
+        <v>1313.144760026555</v>
       </c>
       <c r="W27" t="n">
-        <v>1022.74240519574</v>
+        <v>1099.911591762884</v>
       </c>
       <c r="X27" t="n">
-        <v>846.416423334633</v>
+        <v>923.5856099017766</v>
       </c>
       <c r="Y27" t="n">
-        <v>687.014463698463</v>
+        <v>764.1836502656066</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>601.889045894738</v>
+        <v>422.6276784389155</v>
       </c>
       <c r="C28" t="n">
-        <v>430.7956734564545</v>
+        <v>422.6276784389155</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7956734564545</v>
+        <v>422.6276784389155</v>
       </c>
       <c r="E28" t="n">
-        <v>430.7956734564545</v>
+        <v>422.6276784389155</v>
       </c>
       <c r="F28" t="n">
-        <v>430.7956734564545</v>
+        <v>257.9965525495068</v>
       </c>
       <c r="G28" t="n">
-        <v>264.550001348964</v>
+        <v>257.9965525495068</v>
       </c>
       <c r="H28" t="n">
         <v>123.8754111516284</v>
@@ -6390,16 +6390,16 @@
         <v>390.4060913956559</v>
       </c>
       <c r="L28" t="n">
-        <v>482.7258406538465</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M28" t="n">
-        <v>926.3500261976417</v>
+        <v>895.3627879183791</v>
       </c>
       <c r="N28" t="n">
-        <v>1357.87859883697</v>
+        <v>1015.694429651405</v>
       </c>
       <c r="O28" t="n">
-        <v>1441.550860885348</v>
+        <v>1414.441451118524</v>
       </c>
       <c r="P28" t="n">
         <v>1739.214911294502</v>
@@ -6408,28 +6408,28 @@
         <v>1887.20023676311</v>
       </c>
       <c r="R28" t="n">
-        <v>1847.103336716822</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S28" t="n">
-        <v>1678.221080048314</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="T28" t="n">
-        <v>1442.965231156598</v>
+        <v>1483.062131202887</v>
       </c>
       <c r="U28" t="n">
-        <v>1379.580154057577</v>
+        <v>1200.318786601754</v>
       </c>
       <c r="V28" t="n">
-        <v>1105.694408997099</v>
+        <v>926.4330415412765</v>
       </c>
       <c r="W28" t="n">
-        <v>826.6247445059734</v>
+        <v>647.3633770501508</v>
       </c>
       <c r="X28" t="n">
-        <v>826.6247445059734</v>
+        <v>647.3633770501508</v>
       </c>
       <c r="Y28" t="n">
-        <v>601.889045894738</v>
+        <v>422.6276784389155</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>865.2628523008966</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="C29" t="n">
-        <v>865.2628523008966</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="D29" t="n">
-        <v>865.2628523008966</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="E29" t="n">
-        <v>865.2628523008966</v>
+        <v>746.7440648035805</v>
       </c>
       <c r="F29" t="n">
-        <v>444.2324402545842</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G29" t="n">
-        <v>37.7440047352622</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H29" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I29" t="n">
-        <v>37.74400473526221</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="J29" t="n">
-        <v>151.474921851223</v>
+        <v>151.4749218512231</v>
       </c>
       <c r="K29" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987903</v>
       </c>
       <c r="L29" t="n">
-        <v>594.3775951131297</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M29" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N29" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O29" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P29" t="n">
         <v>1687.808675484973</v>
@@ -6490,25 +6490,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S29" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T29" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="U29" t="n">
-        <v>1887.20023676311</v>
+        <v>1546.078407399286</v>
       </c>
       <c r="V29" t="n">
-        <v>1649.666550996775</v>
+        <v>1546.078407399286</v>
       </c>
       <c r="W29" t="n">
-        <v>1265.906250131944</v>
+        <v>1162.318106534455</v>
       </c>
       <c r="X29" t="n">
-        <v>865.2628523008966</v>
+        <v>1147.68073785549</v>
       </c>
       <c r="Y29" t="n">
-        <v>865.2628523008966</v>
+        <v>746.7440648035805</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>683.0535714964635</v>
+        <v>623.88061763002</v>
       </c>
       <c r="C30" t="n">
-        <v>549.0585002454092</v>
+        <v>489.8855463789657</v>
       </c>
       <c r="D30" t="n">
-        <v>432.1613424648016</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="E30" t="n">
-        <v>311.6685264571296</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F30" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G30" t="n">
-        <v>96.91695860170569</v>
+        <v>37.7440047352622</v>
       </c>
       <c r="H30" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="I30" t="n">
-        <v>57.84875584306886</v>
+        <v>38.28095199337146</v>
       </c>
       <c r="J30" t="n">
-        <v>117.9648829249711</v>
+        <v>342.0654830499069</v>
       </c>
       <c r="K30" t="n">
-        <v>252.3656232773796</v>
+        <v>476.4662234023154</v>
       </c>
       <c r="L30" t="n">
-        <v>451.8446339305631</v>
+        <v>675.945234055499</v>
       </c>
       <c r="M30" t="n">
-        <v>692.4667621555095</v>
+        <v>916.5673622804454</v>
       </c>
       <c r="N30" t="n">
-        <v>1159.548820754379</v>
+        <v>1169.393543436895</v>
       </c>
       <c r="O30" t="n">
-        <v>1608.300325338226</v>
+        <v>1391.681088535828</v>
       </c>
       <c r="P30" t="n">
-        <v>1778.87578566774</v>
+        <v>1562.256548865342</v>
       </c>
       <c r="Q30" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589205</v>
       </c>
       <c r="R30" t="n">
         <v>1887.20023676311</v>
@@ -6575,19 +6575,19 @@
         <v>1646.959067601334</v>
       </c>
       <c r="U30" t="n">
-        <v>1449.687100466378</v>
+        <v>1526.856287033521</v>
       </c>
       <c r="V30" t="n">
-        <v>1235.975573459411</v>
+        <v>1313.144760026555</v>
       </c>
       <c r="W30" t="n">
-        <v>1159.084545629327</v>
+        <v>1099.911591762884</v>
       </c>
       <c r="X30" t="n">
-        <v>982.7585637682201</v>
+        <v>923.5856099017766</v>
       </c>
       <c r="Y30" t="n">
-        <v>823.3566041320502</v>
+        <v>764.1836502656066</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>881.1522220643403</v>
+        <v>553.2131995661649</v>
       </c>
       <c r="C31" t="n">
-        <v>829.7008527382677</v>
+        <v>382.1198271278814</v>
       </c>
       <c r="D31" t="n">
-        <v>670.2062080611777</v>
+        <v>382.1198271278814</v>
       </c>
       <c r="E31" t="n">
-        <v>509.2953929294971</v>
+        <v>382.1198271278814</v>
       </c>
       <c r="F31" t="n">
-        <v>344.6642670400884</v>
+        <v>382.1198271278814</v>
       </c>
       <c r="G31" t="n">
-        <v>178.4185949325979</v>
+        <v>215.874155020391</v>
       </c>
       <c r="H31" t="n">
-        <v>37.7440047352622</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="I31" t="n">
         <v>37.7440047352622</v>
       </c>
       <c r="J31" t="n">
-        <v>56.4452522174457</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K31" t="n">
-        <v>325.4047277643195</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L31" t="n">
-        <v>731.7035882575332</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M31" t="n">
-        <v>1042.474118665499</v>
+        <v>895.3627879183791</v>
       </c>
       <c r="N31" t="n">
-        <v>1141.968389857242</v>
+        <v>1015.694429651405</v>
       </c>
       <c r="O31" t="n">
-        <v>1540.715411324361</v>
+        <v>1414.441451118524</v>
       </c>
       <c r="P31" t="n">
-        <v>1865.488871500339</v>
+        <v>1739.214911294502</v>
       </c>
       <c r="Q31" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="R31" t="n">
-        <v>1847.103336716822</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="S31" t="n">
-        <v>1678.221080048314</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="T31" t="n">
-        <v>1442.965231156598</v>
+        <v>1483.062131202887</v>
       </c>
       <c r="U31" t="n">
-        <v>1160.221886555466</v>
+        <v>1483.062131202887</v>
       </c>
       <c r="V31" t="n">
-        <v>1160.221886555466</v>
+        <v>1483.062131202887</v>
       </c>
       <c r="W31" t="n">
-        <v>881.1522220643403</v>
+        <v>1203.992466711761</v>
       </c>
       <c r="X31" t="n">
-        <v>881.1522220643403</v>
+        <v>965.6486045714446</v>
       </c>
       <c r="Y31" t="n">
-        <v>881.1522220643403</v>
+        <v>740.9129059602093</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>865.2628523008966</v>
+        <v>923.4556808749503</v>
       </c>
       <c r="C32" t="n">
-        <v>865.2628523008966</v>
+        <v>923.4556808749503</v>
       </c>
       <c r="D32" t="n">
-        <v>865.2628523008966</v>
+        <v>923.4556808749503</v>
       </c>
       <c r="E32" t="n">
-        <v>865.2628523008966</v>
+        <v>509.115465391847</v>
       </c>
       <c r="F32" t="n">
-        <v>444.2324402545842</v>
+        <v>88.08505334553456</v>
       </c>
       <c r="G32" t="n">
         <v>37.7440047352622</v>
@@ -6697,7 +6697,7 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I32" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526225</v>
       </c>
       <c r="J32" t="n">
         <v>151.4749218512229</v>
@@ -6727,25 +6727,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S32" t="n">
-        <v>1887.20023676311</v>
+        <v>1802.959711252748</v>
       </c>
       <c r="T32" t="n">
-        <v>1887.20023676311</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U32" t="n">
-        <v>1887.20023676311</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="V32" t="n">
-        <v>1537.362682099591</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="W32" t="n">
-        <v>1153.602381234759</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="X32" t="n">
-        <v>1153.602381234759</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="Y32" t="n">
-        <v>1153.602381234759</v>
+        <v>1333.67686053944</v>
       </c>
     </row>
     <row r="33">
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>683.0535714964635</v>
+        <v>632.4412287417762</v>
       </c>
       <c r="C33" t="n">
         <v>549.0585002454092</v>
@@ -6776,31 +6776,31 @@
         <v>37.7440047352622</v>
       </c>
       <c r="I33" t="n">
-        <v>38.28095199337146</v>
+        <v>57.84875584306886</v>
       </c>
       <c r="J33" t="n">
-        <v>98.39707907527369</v>
+        <v>361.6332868996043</v>
       </c>
       <c r="K33" t="n">
-        <v>565.4791376741434</v>
+        <v>496.0340272520128</v>
       </c>
       <c r="L33" t="n">
-        <v>764.9581483273269</v>
+        <v>695.5130379051964</v>
       </c>
       <c r="M33" t="n">
-        <v>1005.580276552273</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N33" t="n">
-        <v>1258.406457708723</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O33" t="n">
-        <v>1480.694002807656</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P33" t="n">
-        <v>1651.26946313717</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q33" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589205</v>
       </c>
       <c r="R33" t="n">
         <v>1887.20023676311</v>
@@ -6818,13 +6818,13 @@
         <v>1321.705371138311</v>
       </c>
       <c r="W33" t="n">
-        <v>1159.084545629327</v>
+        <v>1108.47220287464</v>
       </c>
       <c r="X33" t="n">
-        <v>982.7585637682201</v>
+        <v>932.1462210135328</v>
       </c>
       <c r="Y33" t="n">
-        <v>823.3566041320502</v>
+        <v>772.7442613773628</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>203.9896768427527</v>
+        <v>349.5119673708814</v>
       </c>
       <c r="C34" t="n">
-        <v>203.9896768427527</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="D34" t="n">
-        <v>203.9896768427527</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="E34" t="n">
-        <v>203.9896768427527</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="F34" t="n">
-        <v>203.9896768427527</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="G34" t="n">
-        <v>37.7440047352622</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H34" t="n">
         <v>37.7440047352622</v>
@@ -6861,19 +6861,19 @@
         <v>121.4466158487821</v>
       </c>
       <c r="K34" t="n">
-        <v>184.1258978099418</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L34" t="n">
-        <v>590.4247583031554</v>
+        <v>482.7258406538465</v>
       </c>
       <c r="M34" t="n">
-        <v>1034.04894384695</v>
+        <v>899.2406164308172</v>
       </c>
       <c r="N34" t="n">
-        <v>1133.543215038693</v>
+        <v>1330.769189070146</v>
       </c>
       <c r="O34" t="n">
-        <v>1532.290236505812</v>
+        <v>1414.441451118524</v>
       </c>
       <c r="P34" t="n">
         <v>1739.214911294502</v>
@@ -6891,19 +6891,19 @@
         <v>1483.062131202887</v>
       </c>
       <c r="U34" t="n">
-        <v>1200.318786601754</v>
+        <v>1274.176979576956</v>
       </c>
       <c r="V34" t="n">
-        <v>926.4330415412765</v>
+        <v>1000.291234516478</v>
       </c>
       <c r="W34" t="n">
-        <v>647.3633770501508</v>
+        <v>1000.291234516478</v>
       </c>
       <c r="X34" t="n">
-        <v>616.4250818480324</v>
+        <v>761.9473723761611</v>
       </c>
       <c r="Y34" t="n">
-        <v>391.6893832367971</v>
+        <v>537.2116737649258</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1283.239222951408</v>
+        <v>1220.097753245158</v>
       </c>
       <c r="C35" t="n">
         <v>873.114632264678</v>
@@ -6925,28 +6925,28 @@
         <v>458.7744167815746</v>
       </c>
       <c r="F35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I35" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J35" t="n">
-        <v>151.4749218512231</v>
+        <v>151.4749218512225</v>
       </c>
       <c r="K35" t="n">
-        <v>342.4771847987904</v>
+        <v>342.4771847987897</v>
       </c>
       <c r="L35" t="n">
-        <v>594.3775951131297</v>
+        <v>594.377595113129</v>
       </c>
       <c r="M35" t="n">
-        <v>887.4914597655641</v>
+        <v>887.4914597655634</v>
       </c>
       <c r="N35" t="n">
         <v>1187.216805582613</v>
@@ -6955,10 +6955,10 @@
         <v>1464.838169622266</v>
       </c>
       <c r="P35" t="n">
-        <v>1687.808675484973</v>
+        <v>1687.808675484972</v>
       </c>
       <c r="Q35" t="n">
-        <v>1835.740277181655</v>
+        <v>1835.740277181654</v>
       </c>
       <c r="R35" t="n">
         <v>1887.20023676311</v>
@@ -6970,19 +6970,19 @@
         <v>1887.20023676311</v>
       </c>
       <c r="U35" t="n">
-        <v>1887.20023676311</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="V35" t="n">
-        <v>1887.20023676311</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="W35" t="n">
-        <v>1693.460402615897</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="X35" t="n">
-        <v>1693.460402615897</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="Y35" t="n">
-        <v>1693.460402615897</v>
+        <v>1630.318932909647</v>
       </c>
     </row>
     <row r="36">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>549.0585002454092</v>
+        <v>683.0535714964635</v>
       </c>
       <c r="C36" t="n">
         <v>549.0585002454092</v>
@@ -7007,34 +7007,34 @@
         <v>202.7086466396342</v>
       </c>
       <c r="G36" t="n">
-        <v>96.91695860170569</v>
+        <v>96.91695860170567</v>
       </c>
       <c r="H36" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I36" t="n">
-        <v>38.28095199337146</v>
+        <v>38.28095199337145</v>
       </c>
       <c r="J36" t="n">
-        <v>98.39707907527369</v>
+        <v>226.0034016058433</v>
       </c>
       <c r="K36" t="n">
-        <v>319.8113050042895</v>
+        <v>693.0854602047129</v>
       </c>
       <c r="L36" t="n">
-        <v>519.290315657473</v>
+        <v>892.5644708578964</v>
       </c>
       <c r="M36" t="n">
-        <v>759.9124438824196</v>
+        <v>1133.186599082843</v>
       </c>
       <c r="N36" t="n">
-        <v>1012.738625038869</v>
+        <v>1386.012780239293</v>
       </c>
       <c r="O36" t="n">
-        <v>1235.026170137802</v>
+        <v>1608.300325338225</v>
       </c>
       <c r="P36" t="n">
-        <v>1405.601630467316</v>
+        <v>1778.87578566774</v>
       </c>
       <c r="Q36" t="n">
         <v>1872.683689066186</v>
@@ -7046,22 +7046,22 @@
         <v>1801.47043908421</v>
       </c>
       <c r="T36" t="n">
-        <v>1646.959067601334</v>
+        <v>1783.301208034922</v>
       </c>
       <c r="U36" t="n">
-        <v>1452.03416964891</v>
+        <v>1586.029240899965</v>
       </c>
       <c r="V36" t="n">
-        <v>1238.322642641944</v>
+        <v>1372.317713892999</v>
       </c>
       <c r="W36" t="n">
-        <v>1025.089474378273</v>
+        <v>1159.084545629327</v>
       </c>
       <c r="X36" t="n">
-        <v>848.7634925171658</v>
+        <v>982.7585637682201</v>
       </c>
       <c r="Y36" t="n">
-        <v>689.3615328809958</v>
+        <v>823.3566041320502</v>
       </c>
     </row>
     <row r="37">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>696.5134234993935</v>
+        <v>694.9195195478214</v>
       </c>
       <c r="C37" t="n">
-        <v>525.42005106111</v>
+        <v>694.9195195478214</v>
       </c>
       <c r="D37" t="n">
-        <v>525.42005106111</v>
+        <v>535.4248748707314</v>
       </c>
       <c r="E37" t="n">
-        <v>430.7956734564545</v>
+        <v>374.5140597390509</v>
       </c>
       <c r="F37" t="n">
-        <v>430.7956734564545</v>
+        <v>209.8829338496421</v>
       </c>
       <c r="G37" t="n">
-        <v>264.550001348964</v>
+        <v>43.63726174215168</v>
       </c>
       <c r="H37" t="n">
-        <v>123.8754111516284</v>
+        <v>43.63726174215168</v>
       </c>
       <c r="I37" t="n">
-        <v>37.7440047352622</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="J37" t="n">
         <v>121.4466158487821</v>
       </c>
       <c r="K37" t="n">
-        <v>381.351871841394</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L37" t="n">
-        <v>787.6507323346076</v>
+        <v>482.7258406538465</v>
       </c>
       <c r="M37" t="n">
-        <v>1231.274917878403</v>
+        <v>926.3500261976417</v>
       </c>
       <c r="N37" t="n">
-        <v>1330.769189070146</v>
+        <v>1357.87859883697</v>
       </c>
       <c r="O37" t="n">
-        <v>1414.441451118524</v>
+        <v>1441.550860885348</v>
       </c>
       <c r="P37" t="n">
         <v>1739.214911294502</v>
@@ -7125,22 +7125,22 @@
         <v>1718.317980094602</v>
       </c>
       <c r="T37" t="n">
-        <v>1483.062131202887</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="U37" t="n">
-        <v>1200.318786601754</v>
+        <v>1435.574635493469</v>
       </c>
       <c r="V37" t="n">
-        <v>1200.318786601754</v>
+        <v>1161.688890432991</v>
       </c>
       <c r="W37" t="n">
-        <v>921.2491221106288</v>
+        <v>882.6192259418658</v>
       </c>
       <c r="X37" t="n">
-        <v>921.2491221106288</v>
+        <v>882.6192259418658</v>
       </c>
       <c r="Y37" t="n">
-        <v>696.5134234993935</v>
+        <v>882.6192259418658</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1263.036585644627</v>
+        <v>740.0538682403713</v>
       </c>
       <c r="C38" t="n">
-        <v>1263.036585644627</v>
+        <v>740.0538682403713</v>
       </c>
       <c r="D38" t="n">
-        <v>858.5726557376875</v>
+        <v>740.0538682403713</v>
       </c>
       <c r="E38" t="n">
-        <v>444.2324402545842</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="F38" t="n">
-        <v>444.2324402545842</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="G38" t="n">
-        <v>37.74400473526219</v>
+        <v>325.7136527572681</v>
       </c>
       <c r="H38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I38" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526248</v>
       </c>
       <c r="J38" t="n">
-        <v>151.4749218512225</v>
+        <v>151.4749218512234</v>
       </c>
       <c r="K38" t="n">
-        <v>342.4771847987897</v>
+        <v>342.4771847987906</v>
       </c>
       <c r="L38" t="n">
-        <v>594.377595113129</v>
+        <v>594.3775951131299</v>
       </c>
       <c r="M38" t="n">
-        <v>887.4914597655634</v>
+        <v>887.4914597655643</v>
       </c>
       <c r="N38" t="n">
         <v>1187.216805582613</v>
       </c>
       <c r="O38" t="n">
-        <v>1464.838169622266</v>
+        <v>1464.838169622267</v>
       </c>
       <c r="P38" t="n">
-        <v>1687.808675484972</v>
+        <v>1687.808675484973</v>
       </c>
       <c r="Q38" t="n">
-        <v>1835.740277181654</v>
+        <v>1835.740277181655</v>
       </c>
       <c r="R38" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S38" t="n">
-        <v>1802.959711252748</v>
+        <v>1802.959711252749</v>
       </c>
       <c r="T38" t="n">
-        <v>1802.959711252748</v>
+        <v>1590.558164392902</v>
       </c>
       <c r="U38" t="n">
-        <v>1802.959711252748</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="V38" t="n">
-        <v>1453.122156589228</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="W38" t="n">
-        <v>1263.036585644627</v>
+        <v>1333.67686053944</v>
       </c>
       <c r="X38" t="n">
-        <v>1263.036585644627</v>
+        <v>1140.990541292281</v>
       </c>
       <c r="Y38" t="n">
-        <v>1263.036585644627</v>
+        <v>740.0538682403713</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>574.0936916789681</v>
+        <v>683.0535714964635</v>
       </c>
       <c r="C39" t="n">
-        <v>440.0986204279138</v>
+        <v>549.0585002454092</v>
       </c>
       <c r="D39" t="n">
-        <v>323.2014626473062</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E39" t="n">
-        <v>202.7086466396342</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F39" t="n">
         <v>202.7086466396342</v>
       </c>
       <c r="G39" t="n">
-        <v>96.91695860170567</v>
+        <v>96.91695860170569</v>
       </c>
       <c r="H39" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="I39" t="n">
-        <v>38.28095199337145</v>
+        <v>57.84875584306887</v>
       </c>
       <c r="J39" t="n">
-        <v>98.39707907527368</v>
+        <v>361.6332868996043</v>
       </c>
       <c r="K39" t="n">
-        <v>232.7978194276822</v>
+        <v>496.0340272520128</v>
       </c>
       <c r="L39" t="n">
-        <v>432.2768300808657</v>
+        <v>695.5130379051964</v>
       </c>
       <c r="M39" t="n">
-        <v>672.8989583058121</v>
+        <v>936.1351661301428</v>
       </c>
       <c r="N39" t="n">
-        <v>925.7251394622621</v>
+        <v>1188.961347286593</v>
       </c>
       <c r="O39" t="n">
-        <v>1148.012684561194</v>
+        <v>1411.248892385525</v>
       </c>
       <c r="P39" t="n">
-        <v>1318.588144890709</v>
+        <v>1581.82435271504</v>
       </c>
       <c r="Q39" t="n">
-        <v>1784.713972589204</v>
+        <v>1872.683689066187</v>
       </c>
       <c r="R39" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S39" t="n">
-        <v>1801.47043908421</v>
+        <v>1801.470439084211</v>
       </c>
       <c r="T39" t="n">
-        <v>1646.959067601334</v>
+        <v>1646.959067601335</v>
       </c>
       <c r="U39" t="n">
-        <v>1449.687100466377</v>
+        <v>1449.687100466378</v>
       </c>
       <c r="V39" t="n">
-        <v>1235.975573459411</v>
+        <v>1235.975573459412</v>
       </c>
       <c r="W39" t="n">
-        <v>1022.74240519574</v>
+        <v>1159.084545629327</v>
       </c>
       <c r="X39" t="n">
-        <v>846.4164233346326</v>
+        <v>982.7585637682201</v>
       </c>
       <c r="Y39" t="n">
-        <v>687.0144636984626</v>
+        <v>823.3566041320502</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>656.4165234531046</v>
+        <v>780.0053692880911</v>
       </c>
       <c r="C40" t="n">
-        <v>595.4267993458632</v>
+        <v>608.9119968498076</v>
       </c>
       <c r="D40" t="n">
-        <v>595.4267993458632</v>
+        <v>449.4173521727176</v>
       </c>
       <c r="E40" t="n">
-        <v>595.4267993458632</v>
+        <v>288.5065370410371</v>
       </c>
       <c r="F40" t="n">
-        <v>430.7956734564545</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="G40" t="n">
-        <v>264.550001348964</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="H40" t="n">
-        <v>123.8754111516283</v>
+        <v>123.8754111516284</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74400473526219</v>
+        <v>37.74400473526221</v>
       </c>
       <c r="J40" t="n">
-        <v>56.4452522174457</v>
+        <v>121.4466158487821</v>
       </c>
       <c r="K40" t="n">
-        <v>119.1245341786054</v>
+        <v>390.4060913956559</v>
       </c>
       <c r="L40" t="n">
-        <v>525.4233946718191</v>
+        <v>796.7049518888696</v>
       </c>
       <c r="M40" t="n">
-        <v>710.4398172179133</v>
+        <v>895.3627879183791</v>
       </c>
       <c r="N40" t="n">
-        <v>1141.968389857242</v>
+        <v>1015.694429651405</v>
       </c>
       <c r="O40" t="n">
-        <v>1540.715411324361</v>
+        <v>1414.441451118524</v>
       </c>
       <c r="P40" t="n">
-        <v>1865.488871500339</v>
+        <v>1739.214911294503</v>
       </c>
       <c r="Q40" t="n">
-        <v>1887.20023676311</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="R40" t="n">
-        <v>1847.103336716821</v>
+        <v>1887.200236763111</v>
       </c>
       <c r="S40" t="n">
-        <v>1678.221080048313</v>
+        <v>1767.86194691471</v>
       </c>
       <c r="T40" t="n">
-        <v>1442.965231156598</v>
+        <v>1767.86194691471</v>
       </c>
       <c r="U40" t="n">
-        <v>1160.221886555466</v>
+        <v>1485.118602313578</v>
       </c>
       <c r="V40" t="n">
-        <v>1160.221886555466</v>
+        <v>1485.118602313578</v>
       </c>
       <c r="W40" t="n">
-        <v>881.1522220643399</v>
+        <v>1206.048937822452</v>
       </c>
       <c r="X40" t="n">
-        <v>881.1522220643399</v>
+        <v>967.7050756821354</v>
       </c>
       <c r="Y40" t="n">
-        <v>656.4165234531046</v>
+        <v>967.7050756821354</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1802.959711252748</v>
+        <v>868.8990074683045</v>
       </c>
       <c r="C41" t="n">
-        <v>1392.835120566018</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="D41" t="n">
-        <v>1392.835120566018</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="E41" t="n">
-        <v>1153.232500322903</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F41" t="n">
-        <v>732.2020882765901</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G41" t="n">
-        <v>325.7136527572681</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H41" t="n">
         <v>37.74400473526219</v>
@@ -7438,25 +7438,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S41" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T41" t="n">
-        <v>1802.959711252748</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="U41" t="n">
-        <v>1802.959711252748</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="V41" t="n">
-        <v>1802.959711252748</v>
+        <v>1630.318932909647</v>
       </c>
       <c r="W41" t="n">
-        <v>1802.959711252748</v>
+        <v>1269.835680520214</v>
       </c>
       <c r="X41" t="n">
-        <v>1802.959711252748</v>
+        <v>1269.835680520214</v>
       </c>
       <c r="Y41" t="n">
-        <v>1802.959711252748</v>
+        <v>868.8990074683045</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>683.0535714964635</v>
+        <v>546.7114310628759</v>
       </c>
       <c r="C42" t="n">
-        <v>549.0585002454092</v>
+        <v>489.8855463789657</v>
       </c>
       <c r="D42" t="n">
-        <v>432.1613424648016</v>
+        <v>372.9883885983581</v>
       </c>
       <c r="E42" t="n">
-        <v>311.6685264571296</v>
+        <v>252.4955725906861</v>
       </c>
       <c r="F42" t="n">
-        <v>202.7086466396342</v>
+        <v>143.5356927731907</v>
       </c>
       <c r="G42" t="n">
-        <v>96.91695860170567</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="H42" t="n">
         <v>37.74400473526219</v>
@@ -7490,22 +7490,22 @@
         <v>38.28095199337145</v>
       </c>
       <c r="J42" t="n">
-        <v>98.39707907527368</v>
+        <v>185.4105646518805</v>
       </c>
       <c r="K42" t="n">
-        <v>232.7978194276822</v>
+        <v>319.8113050042891</v>
       </c>
       <c r="L42" t="n">
-        <v>432.2768300808657</v>
+        <v>519.2903156574725</v>
       </c>
       <c r="M42" t="n">
-        <v>672.8989583058121</v>
+        <v>759.9124438824191</v>
       </c>
       <c r="N42" t="n">
-        <v>925.7251394622621</v>
+        <v>1012.738625038869</v>
       </c>
       <c r="O42" t="n">
-        <v>1148.012684561194</v>
+        <v>1235.026170137802</v>
       </c>
       <c r="P42" t="n">
         <v>1405.601630467316</v>
@@ -7523,19 +7523,19 @@
         <v>1646.959067601334</v>
       </c>
       <c r="U42" t="n">
-        <v>1586.029240899965</v>
+        <v>1449.687100466377</v>
       </c>
       <c r="V42" t="n">
-        <v>1372.317713892999</v>
+        <v>1235.975573459411</v>
       </c>
       <c r="W42" t="n">
-        <v>1159.084545629327</v>
+        <v>1022.74240519574</v>
       </c>
       <c r="X42" t="n">
-        <v>982.7585637682201</v>
+        <v>846.4164233346326</v>
       </c>
       <c r="Y42" t="n">
-        <v>823.3566041320502</v>
+        <v>687.0144636984626</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>591.5099351074228</v>
+        <v>856.9714360694672</v>
       </c>
       <c r="C43" t="n">
-        <v>590.2903181335445</v>
+        <v>685.8780636311837</v>
       </c>
       <c r="D43" t="n">
-        <v>430.7956734564545</v>
+        <v>526.3834189540937</v>
       </c>
       <c r="E43" t="n">
-        <v>430.7956734564545</v>
+        <v>365.4726038224132</v>
       </c>
       <c r="F43" t="n">
-        <v>430.7956734564545</v>
+        <v>200.8414779330045</v>
       </c>
       <c r="G43" t="n">
-        <v>264.550001348964</v>
+        <v>178.4185949325979</v>
       </c>
       <c r="H43" t="n">
-        <v>123.8754111516283</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="I43" t="n">
         <v>37.74400473526219</v>
@@ -7572,22 +7572,22 @@
         <v>121.4466158487821</v>
       </c>
       <c r="K43" t="n">
-        <v>390.4060913956559</v>
+        <v>184.1258978099418</v>
       </c>
       <c r="L43" t="n">
-        <v>796.7049518888696</v>
+        <v>590.4247583031554</v>
       </c>
       <c r="M43" t="n">
-        <v>895.3627879183791</v>
+        <v>1034.04894384695</v>
       </c>
       <c r="N43" t="n">
-        <v>1015.694429651405</v>
+        <v>1457.043149275982</v>
       </c>
       <c r="O43" t="n">
-        <v>1414.441451118523</v>
+        <v>1540.715411324361</v>
       </c>
       <c r="P43" t="n">
-        <v>1739.214911294502</v>
+        <v>1865.488871500339</v>
       </c>
       <c r="Q43" t="n">
         <v>1887.20023676311</v>
@@ -7608,13 +7608,13 @@
         <v>1095.315298209784</v>
       </c>
       <c r="W43" t="n">
-        <v>816.2456337186582</v>
+        <v>1095.315298209784</v>
       </c>
       <c r="X43" t="n">
-        <v>816.2456337186582</v>
+        <v>856.9714360694672</v>
       </c>
       <c r="Y43" t="n">
-        <v>591.5099351074228</v>
+        <v>856.9714360694672</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1279.603067784</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="C44" t="n">
-        <v>1279.603067784</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="D44" t="n">
-        <v>1279.603067784</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="E44" t="n">
-        <v>865.2628523008966</v>
+        <v>458.7744167815746</v>
       </c>
       <c r="F44" t="n">
-        <v>444.2324402545842</v>
+        <v>37.74400473526219</v>
       </c>
       <c r="G44" t="n">
         <v>37.74400473526219</v>
@@ -7678,22 +7678,22 @@
         <v>1887.20023676311</v>
       </c>
       <c r="T44" t="n">
-        <v>1887.20023676311</v>
+        <v>1674.798689903263</v>
       </c>
       <c r="U44" t="n">
-        <v>1887.20023676311</v>
+        <v>1417.917386049801</v>
       </c>
       <c r="V44" t="n">
-        <v>1537.36268209959</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="W44" t="n">
-        <v>1537.36268209959</v>
+        <v>1068.079831386282</v>
       </c>
       <c r="X44" t="n">
-        <v>1537.36268209959</v>
+        <v>667.4364335552345</v>
       </c>
       <c r="Y44" t="n">
-        <v>1537.36268209959</v>
+        <v>458.7744167815746</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>546.7114310628759</v>
+        <v>632.4412287417757</v>
       </c>
       <c r="C45" t="n">
-        <v>412.7163598118216</v>
+        <v>498.4461574907214</v>
       </c>
       <c r="D45" t="n">
-        <v>295.819202031214</v>
+        <v>432.1613424648016</v>
       </c>
       <c r="E45" t="n">
-        <v>202.7086466396342</v>
+        <v>311.6685264571296</v>
       </c>
       <c r="F45" t="n">
         <v>202.7086466396342</v>
@@ -7727,52 +7727,52 @@
         <v>57.84875584306885</v>
       </c>
       <c r="J45" t="n">
-        <v>117.9648829249711</v>
+        <v>361.6332868996043</v>
       </c>
       <c r="K45" t="n">
-        <v>252.3656232773796</v>
+        <v>605.1157437277316</v>
       </c>
       <c r="L45" t="n">
-        <v>451.8446339305631</v>
+        <v>804.594754380915</v>
       </c>
       <c r="M45" t="n">
-        <v>692.4667621555095</v>
+        <v>1045.216882605861</v>
       </c>
       <c r="N45" t="n">
-        <v>1012.738625038869</v>
+        <v>1298.043063762311</v>
       </c>
       <c r="O45" t="n">
-        <v>1235.026170137802</v>
+        <v>1520.330608861244</v>
       </c>
       <c r="P45" t="n">
-        <v>1405.601630467316</v>
+        <v>1690.906069190758</v>
       </c>
       <c r="Q45" t="n">
-        <v>1872.683689066186</v>
+        <v>1784.713972589204</v>
       </c>
       <c r="R45" t="n">
         <v>1887.20023676311</v>
       </c>
       <c r="S45" t="n">
-        <v>1801.47043908421</v>
+        <v>1887.20023676311</v>
       </c>
       <c r="T45" t="n">
-        <v>1646.959067601334</v>
+        <v>1732.688865280234</v>
       </c>
       <c r="U45" t="n">
-        <v>1449.687100466377</v>
+        <v>1535.416898145277</v>
       </c>
       <c r="V45" t="n">
-        <v>1235.975573459411</v>
+        <v>1321.705371138311</v>
       </c>
       <c r="W45" t="n">
-        <v>1022.74240519574</v>
+        <v>1108.47220287464</v>
       </c>
       <c r="X45" t="n">
-        <v>846.4164233346326</v>
+        <v>932.1462210135323</v>
       </c>
       <c r="Y45" t="n">
-        <v>687.0144636984626</v>
+        <v>772.7442613773624</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>353.1660729671063</v>
+        <v>461.2144556974023</v>
       </c>
       <c r="C46" t="n">
-        <v>353.1660729671063</v>
+        <v>290.1210832591188</v>
       </c>
       <c r="D46" t="n">
-        <v>353.1660729671063</v>
+        <v>290.1210832591188</v>
       </c>
       <c r="E46" t="n">
-        <v>353.1660729671063</v>
+        <v>290.1210832591188</v>
       </c>
       <c r="F46" t="n">
         <v>290.1210832591188</v>
@@ -7812,16 +7812,16 @@
         <v>390.4060913956559</v>
       </c>
       <c r="L46" t="n">
-        <v>716.5139143601399</v>
+        <v>482.7258406538465</v>
       </c>
       <c r="M46" t="n">
-        <v>1160.138099903935</v>
+        <v>926.3500261976417</v>
       </c>
       <c r="N46" t="n">
-        <v>1591.666672543263</v>
+        <v>1330.769189070145</v>
       </c>
       <c r="O46" t="n">
-        <v>1675.338934591642</v>
+        <v>1414.441451118523</v>
       </c>
       <c r="P46" t="n">
         <v>1739.214911294502</v>
@@ -7833,25 +7833,25 @@
         <v>1887.20023676311</v>
       </c>
       <c r="S46" t="n">
-        <v>1887.20023676311</v>
+        <v>1718.317980094602</v>
       </c>
       <c r="T46" t="n">
-        <v>1651.944387871394</v>
+        <v>1483.062131202886</v>
       </c>
       <c r="U46" t="n">
-        <v>1369.201043270262</v>
+        <v>1201.86957164305</v>
       </c>
       <c r="V46" t="n">
-        <v>1095.315298209784</v>
+        <v>927.9838265825723</v>
       </c>
       <c r="W46" t="n">
-        <v>816.2456337186582</v>
+        <v>648.9141620914467</v>
       </c>
       <c r="X46" t="n">
-        <v>577.9017715783416</v>
+        <v>648.9141620914467</v>
       </c>
       <c r="Y46" t="n">
-        <v>353.1660729671063</v>
+        <v>648.9141620914467</v>
       </c>
     </row>
   </sheetData>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.24975120521682</v>
+        <v>30.09747728131218</v>
       </c>
       <c r="K5" t="n">
-        <v>23.43011358499584</v>
+        <v>21.58238750890048</v>
       </c>
       <c r="L5" t="n">
-        <v>13.52641092061603</v>
+        <v>11.67868484452067</v>
       </c>
       <c r="M5" t="n">
-        <v>0.03910817678591627</v>
+        <v>1.812178653847116</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>17.28093897160524</v>
       </c>
       <c r="Q5" t="n">
-        <v>34.45736866101245</v>
+        <v>34.5320242600466</v>
       </c>
       <c r="R5" t="n">
         <v>53.95236302478607</v>
@@ -8379,19 +8379,19 @@
         <v>24.57360769300592</v>
       </c>
       <c r="L7" t="n">
-        <v>21.05929355704222</v>
+        <v>19.21156748094687</v>
       </c>
       <c r="M7" t="n">
         <v>18.92297028778722</v>
       </c>
       <c r="N7" t="n">
-        <v>17.10630800928759</v>
+        <v>17.03165241025344</v>
       </c>
       <c r="O7" t="n">
-        <v>24.17674057716901</v>
+        <v>24.25139617620317</v>
       </c>
       <c r="P7" t="n">
-        <v>26.968289224719</v>
+        <v>28.81601530081436</v>
       </c>
       <c r="Q7" t="n">
         <v>41.41190018666367</v>
@@ -8455,7 +8455,7 @@
         <v>18.48294167697897</v>
       </c>
       <c r="K8" t="n">
-        <v>6.944471810258847</v>
+        <v>29.32523950578658</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8470,13 +8470,13 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.264223251267785</v>
+        <v>0.7330732454824584</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.2575401764107</v>
+        <v>21.78869018219602</v>
       </c>
       <c r="R8" t="n">
-        <v>69.10457832303936</v>
+        <v>46.72381062751163</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.94160780737001</v>
+        <v>53.32237550289775</v>
       </c>
       <c r="K10" t="n">
         <v>18.57647807777823</v>
       </c>
       <c r="L10" t="n">
-        <v>33.9180740084438</v>
+        <v>11.53730631291606</v>
       </c>
       <c r="M10" t="n">
-        <v>32.3080321501973</v>
+        <v>10.83153789691311</v>
       </c>
       <c r="N10" t="n">
         <v>29.7403134148602</v>
       </c>
       <c r="O10" t="n">
-        <v>37.48839935607683</v>
+        <v>15.1076316605491</v>
       </c>
       <c r="P10" t="n">
-        <v>20.72526791008761</v>
+        <v>42.2017621633718</v>
       </c>
       <c r="Q10" t="n">
-        <v>37.08955582939744</v>
+        <v>59.47032352492518</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>11.18440703345461</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>237.3604673907122</v>
       </c>
       <c r="K12" t="n">
-        <v>126.4043369310921</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>110.9561304596197</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.483861194218569</v>
+        <v>6.483861194218576</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>56.56776858105854</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>226.952675988203</v>
       </c>
       <c r="M13" t="n">
-        <v>222.8583079278168</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>220.9491119866783</v>
+        <v>99.73878988059801</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>233.5952300347932</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.5494547533709</v>
+        <v>1.980004283374555</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11.18440703345461</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>10.88682817855936</v>
+        <v>146.4049777126493</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>226.4736392121528</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>6.483861194218569</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.298031390757266</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K16" t="n">
-        <v>30.03833906026993</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>222.8583079278168</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>220.9491119866783</v>
+        <v>220.9491119866782</v>
       </c>
       <c r="O16" t="n">
-        <v>233.5952300347932</v>
+        <v>91.57126701166604</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>247.7663169052496</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>1.980004283374569</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>11.1844070334546</v>
       </c>
       <c r="J18" t="n">
-        <v>154.9860291132323</v>
+        <v>237.3604673907124</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>6.483861194218562</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9327,19 +9327,19 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>91.24787785906727</v>
+        <v>226.9526759882031</v>
       </c>
       <c r="M19" t="n">
-        <v>222.8583079278168</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>220.9491119866783</v>
+        <v>60.33630488011015</v>
       </c>
       <c r="O19" t="n">
-        <v>233.5952300347932</v>
+        <v>233.5952300347933</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>247.7663169052498</v>
       </c>
       <c r="Q19" t="n">
         <v>1.980004283374541</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>19.76545843403778</v>
+        <v>11.1844070334546</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>237.3604673907119</v>
       </c>
       <c r="K21" t="n">
-        <v>58.28643062545288</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>170.4929853646764</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>5.130330082837077</v>
       </c>
       <c r="M22" t="n">
-        <v>5.130330082837069</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>220.9491119866784</v>
+        <v>220.9491119866783</v>
       </c>
       <c r="O22" t="n">
-        <v>233.5952300347933</v>
+        <v>233.5952300347932</v>
       </c>
       <c r="P22" t="n">
-        <v>247.7663169052498</v>
+        <v>247.7663169052497</v>
       </c>
       <c r="Q22" t="n">
         <v>127.5494547533709</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>199.0418514673742</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>199.0418514673744</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9801,22 +9801,22 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L25" t="n">
-        <v>45.44169140746499</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M25" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>335.3881832803894</v>
+        <v>21.04784903159926</v>
       </c>
       <c r="O25" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
         <v>246.129700984478</v>
@@ -9974,7 +9974,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>218.807309901412</v>
+        <v>199.0418514673742</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10038,19 +10038,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M28" t="n">
-        <v>348.4508580952379</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>335.3881832803894</v>
+        <v>21.04784903159903</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P28" t="n">
-        <v>236.1495694002966</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q28" t="n">
         <v>127.5494547533709</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.76545843403778</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>216.4200782246665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>228.7514742271858</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>129.9490104297136</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K31" t="n">
         <v>208.3638319047618</v>
@@ -10278,10 +10278,10 @@
         <v>317.1506174091142</v>
       </c>
       <c r="M31" t="n">
-        <v>214.2552468469257</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>21.04784903159903</v>
       </c>
       <c r="O31" t="n">
         <v>318.2573327462026</v>
@@ -10290,7 +10290,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>336.0417356024861</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.895275283404</v>
+        <v>110.1835519956759</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10509,22 +10509,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L34" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>348.4508580952379</v>
+        <v>321.0676159065264</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O34" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>144.4936344301312</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q34" t="n">
         <v>127.5494547533709</v>
@@ -10664,10 +10664,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>128.8952752834037</v>
       </c>
       <c r="K36" t="n">
-        <v>87.89240967334072</v>
+        <v>336.0417356024859</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>377.0446012125492</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10746,22 +10746,22 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K37" t="n">
-        <v>199.2181555873254</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>263.5328115890082</v>
+        <v>236.1495694002961</v>
       </c>
       <c r="Q37" t="n">
         <v>127.5494547533709</v>
@@ -10898,10 +10898,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>376.0787114141912</v>
+        <v>199.0418514673747</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,19 +10980,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L40" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
-        <v>87.2308954712976</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>335.3881832803894</v>
+        <v>21.04784903159948</v>
       </c>
       <c r="O40" t="n">
         <v>318.2573327462026</v>
@@ -11001,7 +11001,7 @@
         <v>263.5328115890082</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>87.89240967334027</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>87.89240967334038</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>377.044601212549</v>
@@ -11220,25 +11220,25 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>21.04784903159856</v>
+        <v>326.7676103406959</v>
       </c>
       <c r="O43" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>263.5328115890082</v>
       </c>
       <c r="Q43" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>110.1835519956755</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>68.12695123930263</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>377.044601212549</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11460,19 +11460,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L46" t="n">
-        <v>236.1495694002963</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N46" t="n">
-        <v>335.3881832803894</v>
+        <v>308.0049410916774</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -22783,19 +22783,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.271241791749205</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>4.175618703767199</v>
+        <v>4.395867652037766</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>8.569336200447452</v>
+        <v>8.349087252176886</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>14.97238184975394</v>
       </c>
       <c r="G5" t="n">
         <v>2.262205923848487</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>161.4751110666232</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>128.271463761219</v>
+        <v>375.5968613855327</v>
       </c>
       <c r="D11" t="n">
-        <v>122.6674095892265</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>132.4449323096287</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -23275,10 +23275,10 @@
         <v>403.0601294533489</v>
       </c>
       <c r="H11" t="n">
-        <v>291.6093089462619</v>
+        <v>13.85742792761829</v>
       </c>
       <c r="I11" t="n">
-        <v>24.54168449516087</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.90414802086316</v>
+        <v>97.90414802086318</v>
       </c>
       <c r="T11" t="n">
-        <v>213.0641528523089</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.3634170780652</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>68.58729809824052</v>
       </c>
       <c r="W11" t="n">
         <v>379.9226978561831</v>
@@ -23336,10 +23336,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>115.7281862028015</v>
@@ -23354,7 +23354,7 @@
         <v>105.0743705695598</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>61.87069759640761</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>91.19898439450054</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.654358777060395</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>144.2141405359677</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="13">
@@ -23427,16 +23427,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>87.05190339154365</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.8687624919694</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.8066176520142</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>93.8572725810412</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>52.53516726463942</v>
       </c>
       <c r="S13" t="n">
         <v>172.1697413867937</v>
       </c>
       <c r="T13" t="n">
-        <v>234.1233553083468</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>2.179605433143877</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>217.3620154448394</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23497,13 +23497,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>137.991024038063</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>122.6674095892265</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>132.4449323096287</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23515,7 +23515,7 @@
         <v>291.6093089462619</v>
       </c>
       <c r="I14" t="n">
-        <v>24.54168449516087</v>
+        <v>24.54168449516089</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>97.90414802086316</v>
+        <v>97.90414802086318</v>
       </c>
       <c r="T14" t="n">
         <v>213.0641528523089</v>
       </c>
       <c r="U14" t="n">
-        <v>9.719560276843879</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>68.58729809824047</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>102.1708168375395</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>118.8850828340933</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23573,22 +23573,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>105.0743705695598</v>
       </c>
       <c r="H15" t="n">
         <v>61.87069759640761</v>
@@ -23627,22 +23627,22 @@
         <v>91.19898439450054</v>
       </c>
       <c r="T15" t="n">
-        <v>154.339112415581</v>
+        <v>26.8071782783252</v>
       </c>
       <c r="U15" t="n">
-        <v>195.3216553196605</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>174.5627220424961</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.52512525074226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.16724817203341</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.8687624919694</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>141.8066176520142</v>
       </c>
       <c r="I16" t="n">
         <v>93.8572725810412</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>52.53516726463941</v>
+        <v>52.53516726463943</v>
       </c>
       <c r="S16" t="n">
-        <v>172.1697413867937</v>
+        <v>86.33169769782967</v>
       </c>
       <c r="T16" t="n">
-        <v>234.1233553083468</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9314864517875</v>
+        <v>2.179605433143934</v>
       </c>
       <c r="V16" t="n">
         <v>271.1468876098733</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>128.3670868492008</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
@@ -23740,19 +23740,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>190.0946410222118</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>139.0682269072057</v>
+        <v>139.0682269072055</v>
       </c>
       <c r="G17" t="n">
-        <v>125.3082484347053</v>
+        <v>403.0601294533489</v>
       </c>
       <c r="H17" t="n">
-        <v>13.85742792761823</v>
+        <v>291.6093089462619</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>24.54168449516086</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>213.0641528523089</v>
       </c>
       <c r="U17" t="n">
-        <v>254.3634170780652</v>
+        <v>9.719560276843765</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -23800,7 +23800,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>119.175425302747</v>
       </c>
     </row>
     <row r="18">
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>105.0743705695598</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>61.87069759640761</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,19 +23864,19 @@
         <v>91.19898439450054</v>
       </c>
       <c r="T18" t="n">
-        <v>154.339112415581</v>
+        <v>26.8071782783243</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3216553196605</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>211.1008365810345</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>35.85770830861131</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8687624919694</v>
+        <v>151.8941905407657</v>
       </c>
       <c r="H19" t="n">
         <v>141.8066176520142</v>
       </c>
       <c r="I19" t="n">
-        <v>93.85727258104119</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>52.53516726463941</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>234.1233553083468</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.17960543314382</v>
+        <v>279.9314864517875</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>155.4084015232863</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>222.4883416251229</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>128.3670868492008</v>
+        <v>128.3670868492009</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>128.2714637612189</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -23983,10 +23983,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>125.3082484347051</v>
+        <v>403.0601294533489</v>
       </c>
       <c r="H20" t="n">
-        <v>260.0296049973494</v>
+        <v>291.6093089462619</v>
       </c>
       <c r="I20" t="n">
         <v>24.54168449516086</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>97.90414802086315</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24028,13 +24028,13 @@
         <v>254.3634170780652</v>
       </c>
       <c r="V20" t="n">
-        <v>68.58729809824035</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>185.209526906044</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24098,16 +24098,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>91.19898439450054</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>195.3216553196605</v>
+        <v>159.1742799730231</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y21" t="n">
-        <v>50.51788446494004</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="22">
@@ -24141,7 +24141,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>164.8687624919694</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>141.8066176520142</v>
@@ -24177,22 +24177,22 @@
         <v>52.53516726463941</v>
       </c>
       <c r="S22" t="n">
-        <v>172.1697413867937</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>234.1233553083468</v>
       </c>
       <c r="U22" t="n">
-        <v>207.9066071947587</v>
+        <v>32.70571970839478</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
@@ -24217,13 +24217,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>296.4059179047325</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H23" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>210.2775313912475</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>241.826769271874</v>
       </c>
     </row>
     <row r="24">
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>27.10843800993064</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>134.9787190292513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>24.80340731299449</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S25" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>50.90021797111987</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>307.2905770271322</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>402.4235511641288</v>
       </c>
       <c r="H26" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>254.3124908149276</v>
@@ -24505,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>118.9540923723565</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>76.39749470147213</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>76.39749470147237</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -24612,13 +24612,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>6.487914311462703</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>217.1646848270898</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24694,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H29" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U29" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>111.1808302082128</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>382.1459688605625</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24776,7 +24776,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24815,13 +24815,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>76.39749470147214</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>134.9787190292512</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>118.4455830810888</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>48.18908786528735</v>
       </c>
       <c r="I31" t="n">
-        <v>85.27009235220248</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9159111551209</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>120.6628342233204</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -24925,13 +24925,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>352.5859130399591</v>
       </c>
       <c r="H32" t="n">
         <v>285.0899515417858</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.39812025525838</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -24998,7 +24998,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>50.10621932714041</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25058,7 +25058,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>50.10621932714025</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25089,10 +25089,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H34" t="n">
-        <v>139.2678442953623</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>85.27009235220248</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>73.1196110454492</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>205.3315112688162</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>62.5100550091874</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -25210,13 +25210,13 @@
         <v>210.2775313912475</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>188.1202620504426</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>134.9787190292518</v>
       </c>
       <c r="U36" t="n">
-        <v>2.323598490707326</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>65.62357315175474</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>79.43576791538189</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H38" t="n">
-        <v>285.0899515417858</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>191.7379826210278</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>205.8775077980496</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27.10843800993121</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25481,7 +25481,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25532,7 +25532,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>134.9787190292508</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>109.0026118477317</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5832153864156</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>139.2678442953623</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>39.69593104582557</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>49.04852715190624</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.9032904027983</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25636,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>172.9902192875881</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>285.0899515417858</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>83.39812025525838</v>
       </c>
       <c r="T41" t="n">
         <v>210.2775313912475</v>
       </c>
       <c r="U41" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>23.04427799064433</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25709,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>76.39749470147265</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.58122432777904</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>134.9787190292517</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>168.1750179097611</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>142.384561216013</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>85.27009235220248</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>150.9369496954101</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -25873,13 +25873,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.4235511641288</v>
       </c>
       <c r="H44" t="n">
         <v>285.0899515417858</v>
@@ -25918,10 +25918,10 @@
         <v>83.39812025525838</v>
       </c>
       <c r="T44" t="n">
-        <v>210.2775313912475</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.3124908149276</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>190.3519097154675</v>
       </c>
     </row>
     <row r="45">
@@ -25949,13 +25949,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>50.10621932714085</v>
       </c>
       <c r="E45" t="n">
-        <v>27.10843800993123</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>84.8724997021109</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>157.8996982303191</v>
@@ -26034,7 +26034,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>100.570274819607</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>39.69593104582557</v>
       </c>
       <c r="S46" t="n">
-        <v>167.1934341018228</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.535277190883392</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>330288.1220287398</v>
+        <v>330288.12202874</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>330288.12202874</v>
+        <v>330288.1220287399</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>475760.6674844328</v>
+        <v>475760.6674844327</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>475760.6674844328</v>
+        <v>475760.6674844329</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>475760.6674844327</v>
+        <v>475760.6674844329</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>475760.6674844328</v>
+        <v>475760.6674844327</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>372629.4093570953</v>
+        <v>372629.4093570954</v>
       </c>
       <c r="C2" t="n">
-        <v>372958.0842158539</v>
+        <v>372958.0842158537</v>
       </c>
       <c r="D2" t="n">
-        <v>374629.503974651</v>
+        <v>374629.5039746512</v>
       </c>
       <c r="E2" t="n">
-        <v>154073.5994900229</v>
+        <v>154073.599490023</v>
       </c>
       <c r="F2" t="n">
         <v>154073.599490023</v>
@@ -26334,13 +26334,13 @@
         <v>154073.599490023</v>
       </c>
       <c r="I2" t="n">
+        <v>220234.926588449</v>
+      </c>
+      <c r="J2" t="n">
         <v>220234.9265884489</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>220234.926588449</v>
-      </c>
-      <c r="K2" t="n">
-        <v>220234.9265884489</v>
       </c>
       <c r="L2" t="n">
         <v>220234.926588449</v>
@@ -26349,13 +26349,13 @@
         <v>220234.9265884489</v>
       </c>
       <c r="N2" t="n">
-        <v>220234.9265884489</v>
+        <v>220234.926588449</v>
       </c>
       <c r="O2" t="n">
         <v>220234.9265884489</v>
       </c>
       <c r="P2" t="n">
-        <v>220234.9265884489</v>
+        <v>220234.926588449</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>9.374401997774843e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>170798.4236574714</v>
+        <v>170798.4236574715</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>5196.728036503758</v>
       </c>
       <c r="M3" t="n">
-        <v>63639.50292457376</v>
+        <v>63639.50292457375</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>324085.2831273911</v>
       </c>
       <c r="C4" t="n">
-        <v>323514.9621391667</v>
+        <v>323514.9621391665</v>
       </c>
       <c r="D4" t="n">
         <v>315460.0369675398</v>
       </c>
       <c r="E4" t="n">
-        <v>15682.92386141549</v>
+        <v>15682.92386141551</v>
       </c>
       <c r="F4" t="n">
-        <v>15682.92386141551</v>
+        <v>15682.9238614155</v>
       </c>
       <c r="G4" t="n">
+        <v>15682.92386141552</v>
+      </c>
+      <c r="H4" t="n">
         <v>15682.9238614155</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15682.92386141552</v>
       </c>
       <c r="I4" t="n">
         <v>26124.50485290888</v>
@@ -26447,16 +26447,16 @@
         <v>26124.50485290887</v>
       </c>
       <c r="L4" t="n">
-        <v>26124.50485290888</v>
+        <v>26124.50485290887</v>
       </c>
       <c r="M4" t="n">
-        <v>26124.50485290887</v>
+        <v>26124.50485290886</v>
       </c>
       <c r="N4" t="n">
+        <v>26124.50485290889</v>
+      </c>
+      <c r="O4" t="n">
         <v>26124.50485290886</v>
-      </c>
-      <c r="O4" t="n">
-        <v>26124.50485290885</v>
       </c>
       <c r="P4" t="n">
         <v>26124.50485290886</v>
@@ -26481,16 +26481,16 @@
         <v>25459.98698850844</v>
       </c>
       <c r="F5" t="n">
+        <v>25459.98698850844</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25459.98698850846</v>
+      </c>
+      <c r="H5" t="n">
         <v>25459.98698850845</v>
       </c>
-      <c r="G5" t="n">
-        <v>25459.98698850845</v>
-      </c>
-      <c r="H5" t="n">
-        <v>25459.98698850846</v>
-      </c>
       <c r="I5" t="n">
-        <v>40710.1211392429</v>
+        <v>40710.12113924291</v>
       </c>
       <c r="J5" t="n">
         <v>40710.1211392429</v>
@@ -26505,7 +26505,7 @@
         <v>40710.1211392429</v>
       </c>
       <c r="N5" t="n">
-        <v>40710.1211392429</v>
+        <v>40710.12113924291</v>
       </c>
       <c r="O5" t="n">
         <v>40710.1211392429</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-112721.6482557395</v>
+        <v>-112730.3443192941</v>
       </c>
       <c r="C6" t="n">
-        <v>9880.770971698861</v>
+        <v>9873.503929269105</v>
       </c>
       <c r="D6" t="n">
-        <v>-10215.61578231455</v>
+        <v>-10215.61578231437</v>
       </c>
       <c r="E6" t="n">
-        <v>-150119.6204862031</v>
+        <v>-151078.5592013536</v>
       </c>
       <c r="F6" t="n">
-        <v>112930.688640099</v>
+        <v>111971.7499249485</v>
       </c>
       <c r="G6" t="n">
-        <v>112930.688640099</v>
+        <v>111971.7499249484</v>
       </c>
       <c r="H6" t="n">
-        <v>112930.688640099</v>
+        <v>111971.7499249485</v>
       </c>
       <c r="I6" t="n">
-        <v>-17398.12306117424</v>
+        <v>-18069.40383241862</v>
       </c>
       <c r="J6" t="n">
-        <v>153400.3005962972</v>
+        <v>152729.0198250528</v>
       </c>
       <c r="K6" t="n">
-        <v>152924.7550315447</v>
+        <v>152253.4742603004</v>
       </c>
       <c r="L6" t="n">
-        <v>148203.5725597935</v>
+        <v>147532.2917885491</v>
       </c>
       <c r="M6" t="n">
-        <v>89760.79767172338</v>
+        <v>89089.51690047905</v>
       </c>
       <c r="N6" t="n">
-        <v>153400.3005962972</v>
+        <v>152729.0198250528</v>
       </c>
       <c r="O6" t="n">
-        <v>153400.3005962972</v>
+        <v>152729.0198250528</v>
       </c>
       <c r="P6" t="n">
-        <v>153400.3005962972</v>
+        <v>152729.0198250528</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>160.7282770233651</v>
       </c>
       <c r="E3" t="n">
-        <v>393.2418634208677</v>
+        <v>393.2418634208676</v>
       </c>
       <c r="F3" t="n">
-        <v>393.2418634208677</v>
+        <v>393.2418634208676</v>
       </c>
       <c r="G3" t="n">
         <v>393.2418634208677</v>
@@ -26801,16 +26801,16 @@
         <v>277.7518810186436</v>
       </c>
       <c r="F4" t="n">
+        <v>277.7518810186435</v>
+      </c>
+      <c r="G4" t="n">
+        <v>277.7518810186438</v>
+      </c>
+      <c r="H4" t="n">
         <v>277.7518810186436</v>
       </c>
-      <c r="G4" t="n">
-        <v>277.7518810186436</v>
-      </c>
-      <c r="H4" t="n">
-        <v>277.7518810186438</v>
-      </c>
       <c r="I4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907776</v>
       </c>
       <c r="J4" t="n">
         <v>471.8000591907775</v>
@@ -26822,10 +26822,10 @@
         <v>471.8000591907775</v>
       </c>
       <c r="M4" t="n">
-        <v>471.8000591907775</v>
+        <v>471.8000591907774</v>
       </c>
       <c r="N4" t="n">
-        <v>471.8000591907774</v>
+        <v>471.8000591907776</v>
       </c>
       <c r="O4" t="n">
         <v>471.8000591907774</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.205731028013953e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>194.0481781721338</v>
+        <v>194.0481781721339</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27697,7 +27697,7 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C6" t="n">
-        <v>130.8073944624484</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
         <v>115.7281862028015</v>
@@ -27709,7 +27709,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
-        <v>105.6360644509761</v>
+        <v>104.0085873231513</v>
       </c>
       <c r="H6" t="n">
         <v>67.29547797745488</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>99.78447580874814</v>
+        <v>101.6322018848435</v>
       </c>
       <c r="T6" t="n">
         <v>156.6031329288336</v>
       </c>
       <c r="U6" t="n">
-        <v>193.7311317366657</v>
+        <v>195.3586088644905</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W6" t="n">
-        <v>211.1008365810345</v>
+        <v>209.2531105049392</v>
       </c>
       <c r="X6" t="n">
-        <v>174.5627220424961</v>
+        <v>172.7149959664007</v>
       </c>
       <c r="Y6" t="n">
         <v>157.8079400398083</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.9749832540086</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>167.7549615860759</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -27785,10 +27785,10 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>161.3573375026899</v>
       </c>
       <c r="G7" t="n">
-        <v>165.3396677736285</v>
+        <v>163.4919416975332</v>
       </c>
       <c r="H7" t="n">
         <v>145.993393701674</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>73.70878111087413</v>
+        <v>71.86105503477877</v>
       </c>
       <c r="S7" t="n">
         <v>180.3763361589797</v>
@@ -27842,7 +27842,7 @@
         <v>234.1126974428181</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.6406155490276</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>381.6140897433388</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.182091927944</v>
@@ -27915,13 +27915,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>359.021564227472</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>394.4120829493409</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>138.9000023092308</v>
+        <v>116.519234613703</v>
       </c>
       <c r="C9" t="n">
         <v>132.6551205385437</v>
@@ -27943,10 +27943,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F9" t="n">
-        <v>88.15730083309964</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>83.19372643722669</v>
+        <v>105.5744941327544</v>
       </c>
       <c r="H9" t="n">
         <v>66.70083832515573</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>78.10779253287302</v>
+        <v>100.4885602284008</v>
       </c>
       <c r="T9" t="n">
         <v>156.3549613391593</v>
       </c>
       <c r="U9" t="n">
-        <v>172.9737904901324</v>
+        <v>195.3545581856602</v>
       </c>
       <c r="V9" t="n">
         <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
-        <v>211.1008365810345</v>
+        <v>191.3878563948137</v>
       </c>
       <c r="X9" t="n">
-        <v>174.5627220424961</v>
+        <v>152.1819543469684</v>
       </c>
       <c r="Y9" t="n">
-        <v>157.8079400398083</v>
+        <v>135.4271723442805</v>
       </c>
     </row>
     <row r="10">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>166.1097291438831</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>147.0016710183729</v>
       </c>
       <c r="D10" t="n">
         <v>157.8996982303191</v>
@@ -28022,13 +28022,13 @@
         <v>136.920939284836</v>
       </c>
       <c r="F10" t="n">
-        <v>140.6040469349869</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>142.9072815915848</v>
+        <v>165.2880492871125</v>
       </c>
       <c r="H10" t="n">
-        <v>125.8214782444287</v>
+        <v>145.5344584306495</v>
       </c>
       <c r="I10" t="n">
         <v>106.4663700204336</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>71.38782625352545</v>
+        <v>49.0070585579977</v>
       </c>
       <c r="S10" t="n">
         <v>179.4767667166956</v>
@@ -31062,7 +31062,7 @@
         <v>91.4328122641236</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661934</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>87.73444147909908</v>
@@ -31609,13 +31609,13 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>75.06465428341215</v>
+        <v>65.8337877363401</v>
       </c>
       <c r="M9" t="n">
         <v>79.94505143394517</v>
       </c>
       <c r="N9" t="n">
-        <v>66.34329454220568</v>
+        <v>75.57416108927774</v>
       </c>
       <c r="O9" t="n">
         <v>80.13224669552773</v>
@@ -31758,7 +31758,7 @@
         <v>16.19010345229732</v>
       </c>
       <c r="I11" t="n">
-        <v>60.9465605609367</v>
+        <v>60.94656056093669</v>
       </c>
       <c r="J11" t="n">
         <v>134.1745190171532</v>
@@ -31770,7 +31770,7 @@
         <v>249.4734285901048</v>
       </c>
       <c r="M11" t="n">
-        <v>277.587257690048</v>
+        <v>277.5872576900479</v>
       </c>
       <c r="N11" t="n">
         <v>282.078909728016</v>
@@ -31779,19 +31779,19 @@
         <v>266.3591156400109</v>
       </c>
       <c r="P11" t="n">
-        <v>227.3313427628143</v>
+        <v>227.3313427628142</v>
       </c>
       <c r="Q11" t="n">
         <v>170.7163709688049</v>
       </c>
       <c r="R11" t="n">
-        <v>99.30443900748173</v>
+        <v>99.30443900748172</v>
       </c>
       <c r="S11" t="n">
-        <v>36.02411643297698</v>
+        <v>36.02411643297697</v>
       </c>
       <c r="T11" t="n">
-        <v>6.920266360300896</v>
+        <v>6.920266360300895</v>
       </c>
       <c r="U11" t="n">
         <v>0.1264697450197764</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8458409892448853</v>
+        <v>0.845840989244885</v>
       </c>
       <c r="H12" t="n">
         <v>8.169043238233497</v>
@@ -31840,7 +31840,7 @@
         <v>29.12215686654539</v>
       </c>
       <c r="J12" t="n">
-        <v>79.91342433914068</v>
+        <v>79.91342433914066</v>
       </c>
       <c r="K12" t="n">
         <v>136.584770618548</v>
@@ -31849,7 +31849,7 @@
         <v>183.6550797042458</v>
       </c>
       <c r="M12" t="n">
-        <v>214.3168155643729</v>
+        <v>214.3168155643728</v>
       </c>
       <c r="N12" t="n">
         <v>219.9891439527739</v>
@@ -31861,16 +31861,16 @@
         <v>161.5185306567711</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.9708603113296</v>
+        <v>107.9708603113295</v>
       </c>
       <c r="R12" t="n">
-        <v>52.51633791118684</v>
+        <v>52.51633791118683</v>
       </c>
       <c r="S12" t="n">
         <v>15.71112539233371</v>
       </c>
       <c r="T12" t="n">
-        <v>3.409332759280918</v>
+        <v>3.409332759280917</v>
       </c>
       <c r="U12" t="n">
         <v>0.05564743350295299</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7091246717425482</v>
+        <v>0.7091246717425481</v>
       </c>
       <c r="H13" t="n">
-        <v>6.304762990583751</v>
+        <v>6.30476299058375</v>
       </c>
       <c r="I13" t="n">
         <v>21.32531285567591</v>
@@ -31922,7 +31922,7 @@
         <v>50.13511429219815</v>
       </c>
       <c r="K13" t="n">
-        <v>82.38739368063422</v>
+        <v>82.3873936806342</v>
       </c>
       <c r="L13" t="n">
         <v>105.4274989243421</v>
@@ -31934,13 +31934,13 @@
         <v>108.5154145403847</v>
       </c>
       <c r="O13" t="n">
-        <v>100.2315490568468</v>
+        <v>100.2315490568467</v>
       </c>
       <c r="P13" t="n">
-        <v>85.76540575329871</v>
+        <v>85.76540575329869</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.37952137655102</v>
+        <v>59.37952137655101</v>
       </c>
       <c r="R13" t="n">
         <v>31.88482387671493</v>
@@ -31949,7 +31949,7 @@
         <v>12.35810905209513</v>
       </c>
       <c r="T13" t="n">
-        <v>3.02989632471816</v>
+        <v>3.029896324718159</v>
       </c>
       <c r="U13" t="n">
         <v>0.03867952754959358</v>
@@ -31995,40 +31995,40 @@
         <v>16.19010345229732</v>
       </c>
       <c r="I14" t="n">
-        <v>60.9465605609367</v>
+        <v>60.94656056093668</v>
       </c>
       <c r="J14" t="n">
         <v>134.1745190171532</v>
       </c>
       <c r="K14" t="n">
-        <v>201.0928228507425</v>
+        <v>201.0928228507424</v>
       </c>
       <c r="L14" t="n">
         <v>249.4734285901048</v>
       </c>
       <c r="M14" t="n">
-        <v>277.587257690048</v>
+        <v>277.5872576900479</v>
       </c>
       <c r="N14" t="n">
-        <v>282.078909728016</v>
+        <v>282.0789097280159</v>
       </c>
       <c r="O14" t="n">
         <v>266.3591156400109</v>
       </c>
       <c r="P14" t="n">
-        <v>227.3313427628143</v>
+        <v>227.3313427628142</v>
       </c>
       <c r="Q14" t="n">
         <v>170.7163709688049</v>
       </c>
       <c r="R14" t="n">
-        <v>99.30443900748173</v>
+        <v>99.3044390074817</v>
       </c>
       <c r="S14" t="n">
-        <v>36.02411643297698</v>
+        <v>36.02411643297697</v>
       </c>
       <c r="T14" t="n">
-        <v>6.920266360300896</v>
+        <v>6.920266360300894</v>
       </c>
       <c r="U14" t="n">
         <v>0.1264697450197764</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8458409892448853</v>
+        <v>0.8458409892448849</v>
       </c>
       <c r="H15" t="n">
-        <v>8.169043238233497</v>
+        <v>8.169043238233495</v>
       </c>
       <c r="I15" t="n">
         <v>29.12215686654539</v>
       </c>
       <c r="J15" t="n">
-        <v>79.91342433914068</v>
+        <v>79.91342433914066</v>
       </c>
       <c r="K15" t="n">
-        <v>136.584770618548</v>
+        <v>136.5847706185479</v>
       </c>
       <c r="L15" t="n">
         <v>183.6550797042458</v>
       </c>
       <c r="M15" t="n">
-        <v>214.3168155643729</v>
+        <v>214.3168155643728</v>
       </c>
       <c r="N15" t="n">
-        <v>219.9891439527739</v>
+        <v>219.9891439527738</v>
       </c>
       <c r="O15" t="n">
         <v>201.2470883489793</v>
@@ -32098,19 +32098,19 @@
         <v>161.5185306567711</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.9708603113296</v>
+        <v>107.9708603113295</v>
       </c>
       <c r="R15" t="n">
-        <v>52.51633791118684</v>
+        <v>52.51633791118682</v>
       </c>
       <c r="S15" t="n">
         <v>15.71112539233371</v>
       </c>
       <c r="T15" t="n">
-        <v>3.409332759280918</v>
+        <v>3.409332759280916</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05564743350295299</v>
+        <v>0.05564743350295298</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7091246717425482</v>
+        <v>0.709124671742548</v>
       </c>
       <c r="H16" t="n">
-        <v>6.304762990583751</v>
+        <v>6.304762990583749</v>
       </c>
       <c r="I16" t="n">
-        <v>21.32531285567591</v>
+        <v>21.3253128556759</v>
       </c>
       <c r="J16" t="n">
-        <v>50.13511429219815</v>
+        <v>50.13511429219814</v>
       </c>
       <c r="K16" t="n">
-        <v>82.38739368063422</v>
+        <v>82.38739368063419</v>
       </c>
       <c r="L16" t="n">
         <v>105.4274989243421</v>
       </c>
       <c r="M16" t="n">
-        <v>111.1585155896069</v>
+        <v>111.1585155896068</v>
       </c>
       <c r="N16" t="n">
         <v>108.5154145403847</v>
       </c>
       <c r="O16" t="n">
-        <v>100.2315490568468</v>
+        <v>100.2315490568467</v>
       </c>
       <c r="P16" t="n">
-        <v>85.76540575329871</v>
+        <v>85.76540575329868</v>
       </c>
       <c r="Q16" t="n">
-        <v>59.37952137655102</v>
+        <v>59.379521376551</v>
       </c>
       <c r="R16" t="n">
-        <v>31.88482387671493</v>
+        <v>31.88482387671492</v>
       </c>
       <c r="S16" t="n">
         <v>12.35810905209513</v>
       </c>
       <c r="T16" t="n">
-        <v>3.02989632471816</v>
+        <v>3.029896324718159</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03867952754959358</v>
+        <v>0.03867952754959357</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34389,7 +34389,7 @@
         <v>318.8720964755372</v>
       </c>
       <c r="Q44" t="n">
-        <v>239.4596646988303</v>
+        <v>239.4596646988302</v>
       </c>
       <c r="R44" t="n">
         <v>139.2918999677087</v>
@@ -34935,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="K5" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.847726076095356</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.7730704770612</v>
       </c>
       <c r="N5" t="n">
         <v>1.847726076095356</v>
@@ -34956,7 +34956,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7730704770612</v>
+        <v>1.847726076095356</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.7730704770612</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.847726076095356</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>1.847726076095356</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.7730704770612</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>22.38076769552774</v>
       </c>
       <c r="L8" t="n">
         <v>6.48094395269159</v>
@@ -35190,13 +35190,13 @@
         <v>15.67819014434953</v>
       </c>
       <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.531150005785326</v>
       </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
       <c r="R8" t="n">
-        <v>22.38076769552774</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>18.9501304725631</v>
+        <v>9.719263925491056</v>
       </c>
       <c r="M9" t="n">
         <v>22.38076769552774</v>
       </c>
       <c r="N9" t="n">
-        <v>13.14990114845569</v>
+        <v>22.38076769552774</v>
       </c>
       <c r="O9" t="n">
         <v>22.38076769552774</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>22.38076769552774</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>22.38076769552774</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>21.47649425328419</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>22.38076769552774</v>
       </c>
       <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>21.47649425328419</v>
+      </c>
+      <c r="Q10" t="n">
         <v>22.38076769552774</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35412,7 +35412,7 @@
         <v>60.8509276838453</v>
       </c>
       <c r="K11" t="n">
-        <v>111.9564331775254</v>
+        <v>111.9564331775253</v>
       </c>
       <c r="L11" t="n">
         <v>153.98803052726</v>
@@ -35430,10 +35430,10 @@
         <v>133.6819794819301</v>
       </c>
       <c r="Q11" t="n">
-        <v>80.68256656965286</v>
+        <v>80.68256656965283</v>
       </c>
       <c r="R11" t="n">
-        <v>11.99229619275822</v>
+        <v>11.9922961927582</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>28.54418553914066</v>
+        <v>265.9046529298529</v>
       </c>
       <c r="K12" t="n">
-        <v>207.1633247650247</v>
+        <v>80.75898783393257</v>
       </c>
       <c r="L12" t="n">
-        <v>127.5405558933968</v>
+        <v>127.5405558933967</v>
       </c>
       <c r="M12" t="n">
         <v>156.7525318259554</v>
       </c>
       <c r="N12" t="n">
-        <v>277.7518810186436</v>
+        <v>166.7957505590239</v>
       </c>
       <c r="O12" t="n">
         <v>143.4956093489793</v>
@@ -35509,7 +35509,7 @@
         <v>107.2588956539674</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.27824180649085</v>
+        <v>51.27824180649083</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>55.26973719030128</v>
+        <v>64.35991167119867</v>
       </c>
       <c r="K13" t="n">
         <v>238.5008560263291</v>
       </c>
       <c r="L13" t="n">
-        <v>50.79920503044062</v>
+        <v>277.7518810186436</v>
       </c>
       <c r="M13" t="n">
+        <v>54.89357309082682</v>
+      </c>
+      <c r="N13" t="n">
+        <v>156.5415589125633</v>
+      </c>
+      <c r="O13" t="n">
         <v>277.7518810186436</v>
       </c>
-      <c r="N13" t="n">
-        <v>277.7518810186436</v>
-      </c>
-      <c r="O13" t="n">
-        <v>44.15665098385043</v>
-      </c>
       <c r="P13" t="n">
-        <v>29.98556411339393</v>
+        <v>29.98556411339391</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.5694504699963</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,16 +35646,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>60.8509276838453</v>
+        <v>60.85092768384527</v>
       </c>
       <c r="K14" t="n">
-        <v>111.9564331775254</v>
+        <v>111.9564331775253</v>
       </c>
       <c r="L14" t="n">
         <v>153.98803052726</v>
       </c>
       <c r="M14" t="n">
-        <v>184.2970332330025</v>
+        <v>184.2970332330024</v>
       </c>
       <c r="N14" t="n">
         <v>189.1666189713966</v>
@@ -35664,13 +35664,13 @@
         <v>173.1693400142278</v>
       </c>
       <c r="P14" t="n">
-        <v>133.6819794819301</v>
+        <v>133.68197948193</v>
       </c>
       <c r="Q14" t="n">
-        <v>80.68256656965286</v>
+        <v>80.68256656965281</v>
       </c>
       <c r="R14" t="n">
-        <v>11.99229619275822</v>
+        <v>11.99229619275819</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>8.58105140058316</v>
       </c>
       <c r="J15" t="n">
-        <v>28.54418553914066</v>
+        <v>28.54418553914065</v>
       </c>
       <c r="K15" t="n">
-        <v>91.64581601249195</v>
+        <v>227.1639655465818</v>
       </c>
       <c r="L15" t="n">
-        <v>127.5405558933968</v>
+        <v>127.5405558933967</v>
       </c>
       <c r="M15" t="n">
         <v>156.7525318259554</v>
       </c>
       <c r="N15" t="n">
-        <v>166.7957505590239</v>
+        <v>166.7957505590238</v>
       </c>
       <c r="O15" t="n">
         <v>143.4956093489793</v>
       </c>
       <c r="P15" t="n">
-        <v>107.2588956539674</v>
+        <v>107.2588956539673</v>
       </c>
       <c r="Q15" t="n">
-        <v>277.7518810186436</v>
+        <v>51.27824180649081</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.37443827747964</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>64.35991167119866</v>
       </c>
       <c r="K16" t="n">
-        <v>60.17536318183732</v>
+        <v>238.5008560263291</v>
       </c>
       <c r="L16" t="n">
-        <v>50.79920503044062</v>
+        <v>50.7992050304406</v>
       </c>
       <c r="M16" t="n">
-        <v>277.7518810186436</v>
+        <v>54.89357309082681</v>
       </c>
       <c r="N16" t="n">
-        <v>277.7518810186436</v>
+        <v>277.7518810186435</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7518810186436</v>
+        <v>135.7279179955164</v>
       </c>
       <c r="P16" t="n">
-        <v>29.98556411339393</v>
+        <v>277.7518810186435</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.5694504699963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>183.530214652373</v>
+        <v>265.9046529298531</v>
       </c>
       <c r="K18" t="n">
         <v>80.75898783393259</v>
@@ -35986,7 +35986,7 @@
         <v>51.27824180649087</v>
       </c>
       <c r="R18" t="n">
-        <v>82.37443827747967</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36047,19 +36047,19 @@
         <v>30.13702412156741</v>
       </c>
       <c r="L19" t="n">
-        <v>142.0470828895079</v>
+        <v>277.7518810186438</v>
       </c>
       <c r="M19" t="n">
-        <v>277.7518810186436</v>
+        <v>54.89357309082685</v>
       </c>
       <c r="N19" t="n">
-        <v>277.7518810186436</v>
+        <v>117.1390739120755</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7518810186436</v>
+        <v>277.7518810186438</v>
       </c>
       <c r="P19" t="n">
-        <v>29.98556411339393</v>
+        <v>277.7518810186438</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.581051400583174</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>28.54418553914068</v>
+        <v>265.9046529298526</v>
       </c>
       <c r="K21" t="n">
-        <v>139.0454184593855</v>
+        <v>80.75898783393259</v>
       </c>
       <c r="L21" t="n">
         <v>127.5405558933968</v>
@@ -36217,7 +36217,7 @@
         <v>143.4956093489794</v>
       </c>
       <c r="P21" t="n">
-        <v>277.7518810186438</v>
+        <v>107.2588956539674</v>
       </c>
       <c r="Q21" t="n">
         <v>51.27824180649087</v>
@@ -36284,19 +36284,19 @@
         <v>30.13702412156741</v>
       </c>
       <c r="L22" t="n">
-        <v>50.79920503044064</v>
+        <v>55.92953511327772</v>
       </c>
       <c r="M22" t="n">
-        <v>60.02390317366392</v>
+        <v>54.89357309082685</v>
       </c>
       <c r="N22" t="n">
-        <v>277.7518810186438</v>
+        <v>277.7518810186436</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7518810186438</v>
+        <v>277.7518810186436</v>
       </c>
       <c r="P22" t="n">
-        <v>277.7518810186438</v>
+        <v>277.7518810186436</v>
       </c>
       <c r="Q22" t="n">
         <v>125.5694504699963</v>
@@ -36445,7 +36445,7 @@
         <v>201.4939501547308</v>
       </c>
       <c r="M24" t="n">
-        <v>442.0945062400474</v>
+        <v>243.0526547726732</v>
       </c>
       <c r="N24" t="n">
         <v>255.379980966111</v>
@@ -36457,7 +36457,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.75545797822838</v>
+        <v>293.7973094456028</v>
       </c>
       <c r="R24" t="n">
         <v>14.66317949184234</v>
@@ -36521,22 +36521,22 @@
         <v>271.6762379261352</v>
       </c>
       <c r="L25" t="n">
-        <v>138.6939633854353</v>
+        <v>410.4028893870845</v>
       </c>
       <c r="M25" t="n">
-        <v>448.1052379230254</v>
+        <v>99.65437982778744</v>
       </c>
       <c r="N25" t="n">
-        <v>435.8874471104327</v>
+        <v>121.5471128616425</v>
       </c>
       <c r="O25" t="n">
         <v>402.774769158706</v>
       </c>
       <c r="P25" t="n">
-        <v>64.52118858874761</v>
+        <v>328.0540001777558</v>
       </c>
       <c r="Q25" t="n">
-        <v>21.93067198259682</v>
+        <v>149.4801267359677</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J27" t="n">
         <v>306.8530616732681</v>
@@ -36694,7 +36694,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q27" t="n">
-        <v>313.5627678796404</v>
+        <v>293.7973094456026</v>
       </c>
       <c r="R27" t="n">
         <v>14.66317949184234</v>
@@ -36758,19 +36758,19 @@
         <v>271.6762379261352</v>
       </c>
       <c r="L28" t="n">
-        <v>93.25227197797028</v>
+        <v>410.4028893870845</v>
       </c>
       <c r="M28" t="n">
-        <v>448.1052379230254</v>
+        <v>99.65437982778744</v>
       </c>
       <c r="N28" t="n">
-        <v>435.8874471104327</v>
+        <v>121.5471128616423</v>
       </c>
       <c r="O28" t="n">
-        <v>84.51743641250346</v>
+        <v>402.774769158706</v>
       </c>
       <c r="P28" t="n">
-        <v>300.6707579890442</v>
+        <v>328.0540001777558</v>
       </c>
       <c r="Q28" t="n">
         <v>149.4801267359677</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>20.3078294018249</v>
+        <v>0.5423709677871287</v>
       </c>
       <c r="J30" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K30" t="n">
         <v>135.7583235882914</v>
@@ -36922,19 +36922,19 @@
         <v>243.0526547726732</v>
       </c>
       <c r="N30" t="n">
-        <v>471.8000591907775</v>
+        <v>255.379980966111</v>
       </c>
       <c r="O30" t="n">
-        <v>453.2843480644913</v>
+        <v>224.5328738373055</v>
       </c>
       <c r="P30" t="n">
         <v>172.2984447772875</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.75545797822838</v>
+        <v>224.704468407942</v>
       </c>
       <c r="R30" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.89014897190253</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K31" t="n">
         <v>271.6762379261352</v>
@@ -36998,10 +36998,10 @@
         <v>410.4028893870845</v>
       </c>
       <c r="M31" t="n">
-        <v>313.9096266747131</v>
+        <v>99.65437982778744</v>
       </c>
       <c r="N31" t="n">
-        <v>100.4992638300433</v>
+        <v>121.5471128616423</v>
       </c>
       <c r="O31" t="n">
         <v>402.774769158706</v>
@@ -37010,7 +37010,7 @@
         <v>328.0540001777558</v>
       </c>
       <c r="Q31" t="n">
-        <v>21.93067198259682</v>
+        <v>149.4801267359677</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J33" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K33" t="n">
-        <v>471.8000591907775</v>
+        <v>135.7583235882914</v>
       </c>
       <c r="L33" t="n">
         <v>201.4939501547308</v>
@@ -37168,10 +37168,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q33" t="n">
-        <v>223.6507332616324</v>
+        <v>204.9390099739042</v>
       </c>
       <c r="R33" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>84.54809203385847</v>
       </c>
       <c r="K34" t="n">
-        <v>63.31240602137349</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L34" t="n">
-        <v>410.4028893870845</v>
+        <v>93.25227197797028</v>
       </c>
       <c r="M34" t="n">
-        <v>448.1052379230254</v>
+        <v>420.7219957343139</v>
       </c>
       <c r="N34" t="n">
-        <v>100.4992638300433</v>
+        <v>435.8874471104327</v>
       </c>
       <c r="O34" t="n">
-        <v>402.774769158706</v>
+        <v>84.51743641250346</v>
       </c>
       <c r="P34" t="n">
-        <v>209.0148230188788</v>
+        <v>328.0540001777558</v>
       </c>
       <c r="Q34" t="n">
         <v>149.4801267359677</v>
@@ -37384,10 +37384,10 @@
         <v>0.5423709677871287</v>
       </c>
       <c r="J36" t="n">
-        <v>60.72336068879013</v>
+        <v>189.6186359721938</v>
       </c>
       <c r="K36" t="n">
-        <v>223.6507332616322</v>
+        <v>471.8000591907774</v>
       </c>
       <c r="L36" t="n">
         <v>201.4939501547308</v>
@@ -37405,7 +37405,7 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q36" t="n">
-        <v>471.8000591907775</v>
+        <v>94.75545797822838</v>
       </c>
       <c r="R36" t="n">
         <v>14.66317949184234</v>
@@ -37466,22 +37466,22 @@
         <v>84.54809203385847</v>
       </c>
       <c r="K37" t="n">
-        <v>262.5305616086989</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L37" t="n">
-        <v>410.4028893870845</v>
+        <v>93.25227197797028</v>
       </c>
       <c r="M37" t="n">
         <v>448.1052379230254</v>
       </c>
       <c r="N37" t="n">
-        <v>100.4992638300433</v>
+        <v>435.8874471104327</v>
       </c>
       <c r="O37" t="n">
         <v>84.51743641250346</v>
       </c>
       <c r="P37" t="n">
-        <v>328.0540001777558</v>
+        <v>300.6707579890438</v>
       </c>
       <c r="Q37" t="n">
         <v>149.4801267359677</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.5423709677871287</v>
+        <v>20.3078294018249</v>
       </c>
       <c r="J39" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K39" t="n">
         <v>135.7583235882914</v>
@@ -37642,10 +37642,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q39" t="n">
-        <v>470.8341693924196</v>
+        <v>293.797309445603</v>
       </c>
       <c r="R39" t="n">
-        <v>103.5214789635406</v>
+        <v>14.66317949184234</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>18.89014897190253</v>
+        <v>84.54809203385847</v>
       </c>
       <c r="K40" t="n">
-        <v>63.31240602137349</v>
+        <v>271.6762379261352</v>
       </c>
       <c r="L40" t="n">
         <v>410.4028893870845</v>
       </c>
       <c r="M40" t="n">
-        <v>186.885275299085</v>
+        <v>99.65437982778744</v>
       </c>
       <c r="N40" t="n">
-        <v>435.8874471104327</v>
+        <v>121.5471128616428</v>
       </c>
       <c r="O40" t="n">
         <v>402.774769158706</v>
@@ -37721,7 +37721,7 @@
         <v>328.0540001777558</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.93067198259682</v>
+        <v>149.4801267359677</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0.5423709677871287</v>
       </c>
       <c r="J42" t="n">
-        <v>60.72336068879013</v>
+        <v>148.6157703621304</v>
       </c>
       <c r="K42" t="n">
         <v>135.7583235882914</v>
@@ -37876,7 +37876,7 @@
         <v>224.5328738373055</v>
       </c>
       <c r="P42" t="n">
-        <v>260.1908544506279</v>
+        <v>172.2984447772875</v>
       </c>
       <c r="Q42" t="n">
         <v>471.8000591907774</v>
@@ -37940,25 +37940,25 @@
         <v>84.54809203385847</v>
       </c>
       <c r="K43" t="n">
-        <v>271.6762379261352</v>
+        <v>63.31240602137349</v>
       </c>
       <c r="L43" t="n">
         <v>410.4028893870845</v>
       </c>
       <c r="M43" t="n">
-        <v>99.65437982778744</v>
+        <v>448.1052379230254</v>
       </c>
       <c r="N43" t="n">
-        <v>121.5471128616418</v>
+        <v>427.2668741707392</v>
       </c>
       <c r="O43" t="n">
-        <v>402.774769158706</v>
+        <v>84.51743641250346</v>
       </c>
       <c r="P43" t="n">
         <v>328.0540001777558</v>
       </c>
       <c r="Q43" t="n">
-        <v>149.4801267359677</v>
+        <v>21.93067198259682</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>225.222733194653</v>
       </c>
       <c r="Q44" t="n">
-        <v>149.4258602996782</v>
+        <v>149.4258602996781</v>
       </c>
       <c r="R44" t="n">
         <v>51.97975715298516</v>
@@ -38095,10 +38095,10 @@
         <v>20.3078294018249</v>
       </c>
       <c r="J45" t="n">
-        <v>60.72336068879013</v>
+        <v>306.8530616732681</v>
       </c>
       <c r="K45" t="n">
-        <v>135.7583235882914</v>
+        <v>245.9418755839669</v>
       </c>
       <c r="L45" t="n">
         <v>201.4939501547308</v>
@@ -38107,7 +38107,7 @@
         <v>243.0526547726732</v>
       </c>
       <c r="N45" t="n">
-        <v>323.5069322054136</v>
+        <v>255.379980966111</v>
       </c>
       <c r="O45" t="n">
         <v>224.5328738373055</v>
@@ -38116,10 +38116,10 @@
         <v>172.2984447772875</v>
       </c>
       <c r="Q45" t="n">
-        <v>471.8000591907774</v>
+        <v>94.75545797822838</v>
       </c>
       <c r="R45" t="n">
-        <v>14.66317949184234</v>
+        <v>103.5214789635406</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38180,19 +38180,19 @@
         <v>271.6762379261352</v>
       </c>
       <c r="L46" t="n">
-        <v>329.4018413782666</v>
+        <v>93.25227197797028</v>
       </c>
       <c r="M46" t="n">
         <v>448.1052379230254</v>
       </c>
       <c r="N46" t="n">
-        <v>435.8874471104327</v>
+        <v>408.5042049217207</v>
       </c>
       <c r="O46" t="n">
         <v>84.51743641250346</v>
       </c>
       <c r="P46" t="n">
-        <v>64.52118858874761</v>
+        <v>328.0540001777558</v>
       </c>
       <c r="Q46" t="n">
         <v>149.4801267359677</v>
